--- a/data-prep/planilhas-bimestral-2022-3bim.xlsx
+++ b/data-prep/planilhas-bimestral-2022-3bim.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tiago\github\bimestral\data-prep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5FCF940-2F5F-404C-A45D-9CFF06A8C753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F4336E-02C6-46C1-9F1A-AB0F0C5773EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{DB749A7D-D527-40BF-95CB-D0AE4C918050}"/>
   </bookViews>
@@ -326,7 +326,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="137">
   <si>
     <t>Atualizar títulos (o que é (a) e o que é (b)) . Atualizar coluna Diferença (c). Ocultar bimestres passados (exceto o último).Deixar LOA</t>
   </si>
@@ -595,211 +595,104 @@
     <t>Descrição</t>
   </si>
   <si>
-    <t>LOA 2022</t>
-  </si>
-  <si>
     <t>Avaliação 
 1º Bimestre
 (a)</t>
   </si>
   <si>
-    <t>Avaliação 
-3º Bimestre
-(a)</t>
-  </si>
-  <si>
     <t>Diferença                                                                                                                                                        (c) = (b) - (a)</t>
   </si>
   <si>
-    <t>IV.1. Benefícios da Previdência</t>
-  </si>
-  <si>
     <t>Benefícios Previdenciários</t>
   </si>
   <si>
-    <t>IV.2. Pessoal e Encargos Sociais</t>
-  </si>
-  <si>
     <t>Pessoal e Encargos Sociais</t>
   </si>
   <si>
-    <t>Demais Obrigatórias</t>
-  </si>
-  <si>
-    <t>IV.3.1. Abono e Seguro Desemprego</t>
-  </si>
-  <si>
     <t>Abono e Seguro Desemprego</t>
   </si>
   <si>
-    <t>IV.3.2. Anistiados</t>
-  </si>
-  <si>
     <t>Anistiados</t>
   </si>
   <si>
-    <t>IV.3.3. Apoio Fin. Municípios/Estados</t>
-  </si>
-  <si>
     <t>Apoio Financeiro aos Estados e Municípios</t>
   </si>
   <si>
-    <t>IV.3.4. Auxílio à CDE</t>
-  </si>
-  <si>
     <t>Aporte à CDE</t>
   </si>
   <si>
-    <t>IV.3.5. Benefícios de Legislação Especial</t>
-  </si>
-  <si>
     <t>Benefícios de Legislação Especial e Indenizações</t>
   </si>
   <si>
-    <t>IV.3.6. Benefícios de Prestação Continuada da LOAS / RMV</t>
-  </si>
-  <si>
     <t>Benefícios de Prestação Continuada da LOAS / RMV</t>
   </si>
   <si>
-    <t>IV.3.7. Capitalização da Petrobrás pela União</t>
-  </si>
-  <si>
     <t>Capitalização da Petrobrás pela União</t>
   </si>
   <si>
-    <t>IV.3.7. Complemento do FGTS</t>
-  </si>
-  <si>
     <t>Complemento para o FGTS</t>
   </si>
   <si>
-    <t xml:space="preserve">IV.3.8. Créditos Extraordinários </t>
-  </si>
-  <si>
     <t xml:space="preserve">Créditos Extraordinários </t>
   </si>
   <si>
-    <t>IV.3.9. Desoneração MP 540, 563 e 582</t>
-  </si>
-  <si>
     <t>Compensação ao RGPS pelas Desonerações da Folha</t>
   </si>
   <si>
-    <t>IV.3.10. Despesas Custeadas com Convênios/Doações (Poder Executivo)</t>
-  </si>
-  <si>
     <t>Despesas Custeadas com Convênios/Doações (Poder Executivo)</t>
   </si>
   <si>
-    <t xml:space="preserve">             IV.3.10.1. Despesas Custeadas com Convênios  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Despesas Custeadas com Convênios  </t>
   </si>
   <si>
-    <t xml:space="preserve">             IV.3.10.2. Despesas Custeadas com Doações  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Despesas Custeadas com Doações  </t>
   </si>
   <si>
-    <t>IV.3.11. Fabricação de Cédulas e Moedas</t>
-  </si>
-  <si>
     <t>Fabricação de Cédulas e Moedas</t>
   </si>
   <si>
-    <t>IV.3.12. Fundef / Fundeb - Complementação</t>
-  </si>
-  <si>
     <t>Fundef/ Fundeb - Complementação</t>
   </si>
   <si>
-    <t>IV.3.13. Fundo Constitucional do DF</t>
-  </si>
-  <si>
     <t>Fundo Constitucional do DF (Custeio e Capital)</t>
   </si>
   <si>
-    <t>IV.3.14. Fundos FDA, FDNE e FDCO</t>
-  </si>
-  <si>
     <t>Fundos FDA, FDNE e FDCO</t>
   </si>
   <si>
-    <t>IV.3.15. Legislativo/Judiciário/MPU (Até 2006 inclusive constava do item IV.4)</t>
-  </si>
-  <si>
     <t>Legislativo/Judiciário/MPU/DPU (Custeio e Capital)</t>
   </si>
   <si>
-    <t xml:space="preserve">             IV.3.15.1. Despesas Custeadas com Convênios/Doações (Leju+MPU)</t>
-  </si>
-  <si>
     <t>Despesas Custeadas com Convênios/Doações (Leju+MPU)</t>
   </si>
   <si>
-    <t xml:space="preserve">             IV.3.15.1.a. Despesas Custeadas com Convênios </t>
-  </si>
-  <si>
     <t xml:space="preserve">Despesas Custeadas com Convênios </t>
   </si>
   <si>
-    <t xml:space="preserve">             IV.3.15.1.b. Despesas Custeadas com Doações  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">             IV.3.15.2. Discricionárias </t>
-  </si>
-  <si>
     <t>Demais</t>
   </si>
   <si>
-    <t>IV.3.16. Lei Kandir (LCs nº 87/96 e 102/00)</t>
-  </si>
-  <si>
     <t>Lei Kandir e FEX / ADO nº 25</t>
   </si>
   <si>
-    <t>IV.3.17. Reserva de Contingência</t>
-  </si>
-  <si>
     <t>Reserva de Contingência</t>
   </si>
   <si>
-    <t>IV.3.19. Sentenças Judiciais e Precatórios - OCC</t>
-  </si>
-  <si>
     <t>Sentenças Judiciais e Precatórios (Custeio e Capital)</t>
   </si>
   <si>
-    <t>IV.3.20. Subsídios, Subvenções e Proagro</t>
-  </si>
-  <si>
     <t>Subsídios, Subvenções e Proagro</t>
   </si>
   <si>
-    <t>IV.3.21. Despesas Custeadas com Recursos de Doações (até 2009)</t>
-  </si>
-  <si>
     <t>Despesas Custeadas com Recursos de Doações (até 2009)</t>
   </si>
   <si>
-    <t>IV.3.22. Despesas Custeadas com Recursos de Convênios (até 2009)</t>
-  </si>
-  <si>
     <t>Despesas Custeadas com Recursos de Convênios (até 2009)</t>
   </si>
   <si>
-    <t>IV.3.21. Transferência ANA - Receitas Uso Recursos Hídricos</t>
-  </si>
-  <si>
     <t>Transferência ANA - Receitas Uso Recursos Hídricos</t>
   </si>
   <si>
-    <t>IV.3.22. Transferência Multas ANEEL (Acórdão TCU nº 3.389/2012)</t>
-  </si>
-  <si>
     <t>Transferência Multas ANEEL (Acórdão TCU nº 3.389/2012)</t>
   </si>
   <si>
@@ -821,25 +714,91 @@
     <t xml:space="preserve">Fontes: SOF/SETO/ME; STN/SETO/ME </t>
   </si>
   <si>
-    <t>Check Obrig Cont Fluxo</t>
-  </si>
-  <si>
-    <t>Total Despesas Primárias Obrigatórias</t>
-  </si>
-  <si>
-    <t>Fundef/Fundeb - Complementação</t>
-  </si>
-  <si>
-    <t>ADO nº 25</t>
-  </si>
-  <si>
-    <t>Despesas do Poder Executivo Sujeitas à Programação Financeira</t>
-  </si>
-  <si>
-    <t>Discricionárias</t>
-  </si>
-  <si>
-    <t>Fontes: SOF/SETO/ME; STN/SETO/ME.</t>
+    <t>justificativa</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> o Imposto de Importação teve a sua projeção, para 2022, reduzida em relação ao Decreto 11.086/22, em razão da redução observada nas alíquotas médias do imposto. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">as diferenças no Imposto sobre Produtos Industrializados se explicam pela realização da arrecadação nos meses de maio e junho de 2022 em valores superiores aos previstos. Além disto, houve ajuste de base da arrecadação do IPI sobre o Fumo e do sobre IPI Automóveis, de forma a refletir o comportamento da arrecadação observada desses tributos no período de janeiro a junho. </t>
+  </si>
+  <si>
+    <t>as estimativas do PIS e da Cofins foram revistas para baixo, principalmente, em razão da aprovação da Lei Complementar 194/22 que reduziu a zero as alíquotas aplicáveis à gasolina, álcool e GNV.</t>
+  </si>
+  <si>
+    <t>o crescimento da projeção se deve à realização da arrecadação no período de maio e junho de 2022, em montantes superiores aos previstos. Houve crescimento nos valores da arrecadação do IRPJ dos setores ligados a commodities. Além do comportamento do IRPJ, destaca-se a arrecadação do IRRF Capital, principalmente do “come-cotas” recolhido em junho de 2022, que apresentou crescimento significativo em relação aos valores projetados.</t>
+  </si>
+  <si>
+    <t>o crescimento da projeção reflete, principalmente, o resultado da arrecadação no período de maio e junho de 2022, em relação aos valores superiores aos previstos. Concorreu significativamente para o resultado o desempenho dos setores ligados a commodities.</t>
+  </si>
+  <si>
+    <t>as estimativas da CIDE foram revistas para baixo em razão da redução a zero das alíquotas aplicáveis a gasolina (Lei Complementar 194/22).</t>
+  </si>
+  <si>
+    <t>O crescimento da projeção da receita previdenciária se deve, fundamentalmente, em razão do aumento, na grade de parâmetros da SPE de 11/07/2022, da projeção da massa salarial, para 2022.</t>
+  </si>
+  <si>
+    <t>aumento devido, majoritariamente, à arrecadação, em junho de 2022, de receitas de novos contratos de concessão de geração de energia elétrica advindos da desestatização da Centrais Elétricas Brasileiras S/A (Eletrobras).</t>
+  </si>
+  <si>
+    <t>a arrecadação deste grupo ficou R$ 26,8 milhões inferior ao esperado no bimestre. Algumas Naturezas de Receita são estimadas utilizando a média do ano corrente, outras a média replicada do ano anterior.</t>
+  </si>
+  <si>
+    <t>a arrecadação efetiva ficou R$ 117,6 milhões acima da previsão no terceiro bimestre. Ademais, a revisão da massa salarial nominal de 16,32% para 18,09% elevou ainda mais a expectativa de arrecadação da Contribuição do Salário-Educação para o ano de 2022.</t>
+  </si>
+  <si>
+    <t>explicam-se a seguir as variações de cada item. Recursos Hídricos (+ R$ 18,2 milhões): no terceiro bimestre de 2022 a arrecadação efetiva ficou R$ 19,2 milhões acima da previsão que compôs o relatório do 2º bimestre. Conforme explicação do setorial orçamentário do Ministério de Minas e Energia (MME), a crise hídrica ocorrida em 2021 obrigou as hidrelétricas a reduzirem a utilização de água (redução esta compensada com o aumento de geração termelétrica), o que acarretou a queda da arrecadação da compensação pela utilização de recursos hídricos em 2021. Para 2022, a expectativa é de alguma recuperação, pois o volume das chuvas já apresenta aumento sensível; Royalties de Itaipu: trata-se de receita que, paga em reais e calculada em dólar, é bastante suscetível às variações cambiais. Como a SPE revisou a previsão do câmbio médio de R$ 5,02/US$ para R$ 5,13/US$, a estimativa para o ano de 2022 refletiu tal expectativa; Recursos do Petróleo: segundo a Nota Técnica nº 23/2022/SPG/ANP-RJ, de 14 de julho de 2022, emitida pela Agência Nacional do Petróleo (ANP), as atuais estimativas de arrecadação de royalties permanecem na mesma ordem de grandeza quando comparadas com a última estimativa enviada, Nota Técnica nº 19. O acréscimo nas receitas de royalties e de participação especial foi de R$ 936,2 milhões, variação correspondente a menos de 1% do total estimado. Por outro lado, houve redução de R$ 96,2 milhões na estimativa das receitas de comercialização do óleo. A revisão dos valores foi encaminhada por meio do Ofício nº 227/2022/SE-MME, de 10 de junho de 2022. Houve ainda um pequeno incremento no valor de R$ 4,6 milhões relativo à arrecadação de restituições de convênios na fonte 142 – “Compensações Financeiras pela Produção de Petróleo, Gás Natural e Outros Hidrocarbonetos Fluidos”; e Recursos Minerais: nos relatórios anteriores a este foram realizadas sucessivas revisões na estimativa deste grupo devido à frustração da arrecadação. Tais frustrações refletiram a queda na cotação do minério de ferro. Diante disso, optou-se, nesta reavaliação, por alterar o modelo de estimativa. O modelo anterior projetava sobre o mesmo mês de 2021, corrigindo-o por parâmetros de variação cambial e crescimento real do PIB. Entretanto, uma vez que já se tendo registrada a arrecadação de metade do ano de 2022, e considerando que a média deste ano, de R$ 557,4 milhões/mês, está consideravelmente menor que a média de arrecadação de 2021, de R$ 856,2 15 milhões/mês, optou-se, por prudência, por estimar os próximos 6 meses de 2022 tomando como base a média de arrecadação do ano corrente.</t>
+  </si>
+  <si>
+    <t>a previsão foi elevada em decorrência de dividendos complementares pelo BNDES (+R$ 18,9 bilhões), pagamentos efetuados pela Petrobrás em maio e junho (+ R$ 1,4 milhões); pelos pagamentos efetuados pela ECT (+ R$ 260 milhões, BASA (+ R$ 62 milhões), SERPRO (R$ 168 milhões) e CEAGESP (R$ 6,9 milhões), que foram parcialmente compensados pela redução de R$ 548,4 milhões do Banco do Brasil, decorrentes de frustração no mês de maio.</t>
+  </si>
+  <si>
+    <t>Os recursos próprios não-financeiros, fontes 50, 63, 70 e 81, tiveram sua estimativa revisada com acréscimo de 4,1% em relação à Avaliação do 2º Bimestre. Nas “demais receitas”, a redução em relação à estimativa anterior se concentrou na restituição de depósitos judiciais não sacados, uma vez que, em julgamento concluído em 30 de junho de 2022, o STF julgou procedente a ADI nº 5.755 proposta pelo Partido Democrático Trabalhista em face da Lei nº 13.463/2017. A decisão é de caráter imperativo para a Administração Pública Federal (artigo 102, § 2º, da Constituição) e possui eficácia desde a publicação da ata da sessão de julgamento contendo a parte dispositiva do acórdão, ocorrida em 06/07/2022. Desse modo, a estimativa dessas receitas de devolução de sentenças judiciais não sacadas foi retirada, estando considerados apenas os valores efetivamente arrecadados até o mês de junho/2022. De modo geral, as estimativas desses grupos de receitas incorporaram a arrecadação do 3º bimestre de 2022, estiveram abertas à inserção e/ou atualização de bases externas pelos órgãos e unidades setoriais e tiveram os índices de preço e quantidade, quando aplicáveis, atualizados segundo a grade de parâmetros da SPE do dia 11 de julho de 2022. As especificidades de cada item serão detalhadas no Anexo IV.</t>
+  </si>
+  <si>
+    <t>a projeção de despesa com benefícios previdenciários do RGPS para o ano de 2022, sob a ótica financeira, de acordo com os resultados realizados até o mês de junho 2022, se mantém em R$ 756.830,6 milhões, conforme estabelecido na LOA-2022 e reiterado no Relatório de Avaliação de Receitas e Despesas Primárias do 2º bimestre (Nota Técnica SEI nº 385/2022/MTP, de 14 de julho de 2022, da Secretaria de Previdência, do Ministério do Trabalho e Previdência). Quanto à projeção orçamentária desses benefícios também foi mantido valor de R$ 760.044,8 milhões previsto no Relatório do 2º bimestre, o que coincide com a previsão da LOA-2022 (Nota Técnica nº 3/2022/CEOFC_x0002_RGPS/CGOFC/DIROFL-INSS, de 14 de julho de 2022, do Instituto Nacional do Seguro Social). A estimativa de despesas com a Compensação Previdenciária – COMPREV foi ampliada em R$ 891,2 milhões, tendo em vista o atendimento à recomendação do Tribunal de Contas da União - TCU de execução dessa despesa pelo bruto e o incremento nas análises dos requerimentos. (também na Nota Técnica nº 3/2022/CEOFC_x0002_RGPS/CGOFC/DIROFL-INSS). Houve variação a maior no valor de sentenças (+ R$ 63,3 17 milhões) devido à necessidade de ajuste das programações orçamentárias destinadas ao pagamento de precatórios, conforme remanejamentos solicitados pelo Conselho de Justiça Federal mediante o Ofício n. 0358512/CJF, de 12 de julho de 2022, decorrente da atualização da correção monetária dos valores, com expectativa para pagamento a ocorrer no mês de julho. Ressalta-se que o ajuste caixa/competência recai apenas sobre os Benefícios Normais, dentro da linha de Benefícios Previdenciários.</t>
+  </si>
+  <si>
+    <t>variação decorrente da redução na projeção atualizada das despesas com pessoal e encargos sociais das diversas unidades do Poder Executivo (- R$ 154,1 mi), compatibilizada com a execução orçamentária até junho de 2022, e da redução na projeção de reservas orçamentárias (- R$ 1.736,9 mi) para o atendimento às despesas de reestruturação de carreiras e aumentos remuneratórios. Também houve aumento no montante de R$ 237,4 milhões, conforme descrito na Tabela 8 no âmbito dos demais poderes e órgãos autônomos. Em detalhe, redução de R$ 41,7 milhões no âmbito do TCU em virtude de a instituição do Adicional de Especialização e Qualificação (PL 7.926/2014) não ter prosperado, acréscimo de R$ 16,0 milhões no STJ para pagamento de pessoal ativo da União, redução de R$ 16,0 milhões da DPU para atender despesas de custeio e capital, e acréscimo de R$ 279,0 milhões no MPU correspondente a projeto de lei a ser encaminhado ao Congresso Nacional que suplementa despesas com pessoal inativo utilizando o limite adicional para o exercício de 2022 decorrente da alteração da forma de cálculo do limite individualizado ocorrida com a edição da EC 113/21. Também foi registrada variação a menor no valor de sentenças (- R$ 100,0 milhões) devido à redução nas projeções das despesas com sentenças e acordos judiciais para o pagamento de passivos atuariais no âmbito das empresas estatais dependentes até o fim do exercício. Por fim, houve a inclusão de Restos a Pagar – RAP de créditos extraordinários referentes a despesa com pessoal no valor R$ 2,7 milhões, valor excetuado dos limites do Teto de Gastos.</t>
+  </si>
+  <si>
+    <t>aumento da projeção para o Seguro-Desemprego decorrente da incorporação dos dados realizados até junho de 2022, principalmente em razão daqueles referentes ao mês de maio, cujo valor executado foi 12,18% acima do montante anteriormente estimado (Nota Técnica SEI nº 378/2022/MTP, de 13 de julho de 2022, da Secretaria de Trabalho, do Ministério do Trabalho e Previdência).</t>
+  </si>
+  <si>
+    <t>incremento de R$ 6.300,0 milhões em virtude da promulgação da EC nº 123/2022 (despesa via crédito extraordinário), referente ao auxílio aos Estados decorrente da perda do ICMS e do auxílio a Estados e Municípios relativo ao transporte público, valor que será excetuado do cômputo dos limites previstos no art. 107 do ADCT e que também não será considerado para fins de apuração da meta de resultado primário, em atendimento ao art. 120 do ADCT. Também houve aumento de R$ 3.862,0 milhões ocasionado pelos efeitos decorrentes da derrubada de veto no 18, em 05/07/2022, da Lei Complementar nº 195/2022.</t>
+  </si>
+  <si>
+    <t>acréscimo de R$ 2.852,00 no STJ remanejados de despesas discricionárias do órgão.</t>
+  </si>
+  <si>
+    <t>aumento devido à aceleração dos processos de avaliação de requerimentos pelo INSS, registrou-se um aumento bem acima do esperado no número de concessões do BPC nos meses de maio e junho. Foram realizadas 143.638 concessões somente neste bimestre, o que representa 62.224 além do número projetado, e supera o total de concessões somadas nos dois bimestres anteriores. Este aumento no número de benefícios com tempo médio de concessão (TMC) elevado (167 dias para idosos e 286 dias para pessoas com deficiência) gera um impacto combinado de mais de 1 bilhão de reais nas ações 00IN e 00H5, considerando os valores retroativos que são pagos no momento da concessão, cujos valores são, em média, 12,2 mil reais em cada concessão para pessoas com deficiência, e 3,7 mil reais para idosos (Nota Técnica nº 16/2022, de 14 de julho de 2022, do Ministério da Cidadania). Também houve aumento no valor de sentenças (+ R$ 0,6 milhões) em função de ajuste das programações orçamentárias destinadas ao pagamento de precatórios, conforme remanejamentos solicitados pelo Conselho de Justiça Federal mediante o Ofício n. 0358512/CJF, de 12 de julho de 2022, decorrente da atualização da correção monetária dos valores, com expectativa para pagamento a ocorrer no mês de julho.</t>
+  </si>
+  <si>
+    <t>conforme Nota Técnica SEI nº 32.751/2022-ME da Secretaria do Tesouro Nacional, a variação em relação à estimativa anterior decorre da revisão nos restos a pagar inscritos líquidos de cancelamentos e da inclusão de R$ 34.950,0 milhões relativos à EC 123/2022, para fins de transparência e controle, ainda que os créditos extraordinários não tenham sido publicados por Medida Provisória. Destaque-se que os valores de despesas via créditos extraordinários relativos à EC 123/2022 não serão considerados para fins de apuração da meta de resultado primário estabelecida no caput do art. 2º da Lei 14.194, de 20 de agosto de 2021, nem afetarão o limite estabelecido para as despesas primárias, de que trata o inciso I do caput do art. 107 do Ato das Disposições Constitucionais Transitórias, conforme dispõe o art. 2º da EC 123/2022, que altera o art. 120 da Constituição Federal.</t>
+  </si>
+  <si>
+    <t>a variação observada entre a projeção atual e a anterior é justificada pela atualização de receitas estaduais (incorporação de dados realizados e parâmetros macroeconômicos de 11/07/2022); incorporação dos efeitos da Lei Complementar nº 194, de 2022, sobre as projeções do ICMS; e a atualização das projeções de tributos federais pela RFB (Nota Técnica SEI nº 31360/2022/ME, de 15 de julho de 2022, da Secretaria do Tesouro Nacional).</t>
+  </si>
+  <si>
+    <t>há necessidade de redução de R$ 153.044 no valor total do FCDF, que recairá nas suas demais despesas de custeio.</t>
+  </si>
+  <si>
+    <t>acréscimo de R$ 41,7 milhões no âmbito do TCU decorrente de não ter prosperado a instituição do Adicional de Especialização e Qualificação previsto no relatório do 1º Bimestre (PL 7.926/2014); redução de R$ 16,0 milhões no STJ remanejados para despesas de pessoal e pensões decorrentes de legislação especial e/ou decisão judicial órgão; acréscimo de R$ 16,0 milhões na DPU para Apoio à Prestação de Assistência Jurídica ao Cidadão e Prestação de Assistência Jurídica ao Cidadão; e redução de R$ 277,4 milhões tendo em vista necessidade de retificação de valores relativos a pleitos eleitorais. Em que pese não impactar o montante de despesas de custeio e capital, foi encaminhado Projeto de Lei, no valor de R$ 0,9 milhão, que remaneja recursos de despesas de custeio e capital para a ação "4269 - Pleitos Eleitorais", que, não obstante não alterar o valor total da despesa com Legislativo/Judiciário/MPU/DPU (Custeio e Capital), tem impacto sobre o Teto de Gastos, tendo em vista que a despesa com pleitos eleitorais está excetuada dos limites previstos no art. 107 do ADCT.</t>
+  </si>
+  <si>
+    <t>variação a menor no valor de sentenças devido ao ajuste das programações orçamentárias destinadas ao pagamento de precatórios, conforme remanejamentos solicitados pelo Conselho de Justiça Federal mediante o Ofício n. 0358512/CJF, de 12 de julho de 2022, decorrente da atualização da correção monetária dos valores, com expectativa para pagamento a ocorrer no mês de julho, bem como à redução na projeção da reserva destinada à correção monetária dos precatórios federais e nas 20 projeções das despesas com sentenças judiciais no âmbito das empresas estatais dependentes até o fim do exercício.</t>
+  </si>
+  <si>
+    <t>a revisão da necessidade de financiamento de 2022 deste grupo de despesas é resultado sobretudo de: i) revisão, pelo Banco Central, da necessidade de recursos da União para a cobertura de sinistros no Proagro no valor de R$372 milhões devido ao reajuste das alíquotas aprovado pelo Conselho Monetário Nacional, para vigorar no ano agrícola 2022/2023; ii) da atualização do cenário de taxas de juros, com base na grade de parâmetros de julho/2022, com impacto nas ações de equalizações de taxas de juros do Plano Safra, reduzindo em R$ 441 milhões o valor total; e iii) incremento de R$ 200 milhões na ação 0267 Proex Equalização para atender demanda do setor exportador. Além disso, observou-se aumento nas programações de Concessão de Crédito-Instalação às Famílias Assentadas e no PNAFM, nos valores de R$ 85,2 milhões e R$ 28,6 milhões, respectivamente. Também houve variação negativa no valor de R$ 52,5 milhões decorrente de retornos de despesas realizadas em 2020 relativas ao Programa Emergencial de Acesso a Crédito - PEAC Maquininhas (MP nº 1.002/2020), retornos excetuados do cômputo do Teto de Gastos por serem decorrentes de crédito extraordinário pregresso.</t>
+  </si>
+  <si>
+    <t>variação no mesmo valor da receita correspondente.</t>
+  </si>
+  <si>
+    <t>o aumento se deve principalmente à revisão do calendário de desembolsos previstos pelo FNDE. Além disso, foram incorporados à estimativa os valores realizados da receita (março a maio/2022 para a CEF e para o BB) e da despesa (maio e junho/2022) mais recentes (Nota Técnica SEI nº 31651/2022/ME, da Secretaria do Tesouro Nacional).</t>
+  </si>
+  <si>
+    <t>Saúde: aumento de R$ 465,2 milhões na ação “20AL - Incentivo Financeiro aos Estados, Distrito Federal e Municípios para a Vigilância em Saúde” para custear o novo piso salarial dos Agentes de Combate às Endemias; aumento de R$ 1.779,3 milhões na ação “219A - Promoção da Atenção Básica em Saúde” para custear o novo piso salarial dos Agentes Comunitários de Saúde. Defesa: aumento de R$ 120,0 milhões na ação “20XV - Operação do Sistema de Controle do Espaço Aéreo Brasileiro - SISCEAB” para atividades de controle do espaço aéreo; aumento de R$ 30,0 milhões na ação “21BZ - Prestação de Auxílios à Navegação” para garantir a segurança do tráfego aquaviário; e aumento de R$ 60,5 milhões na ação “212O - Movimentação de Militares” para movimentação de militares do exército. Auxílio Inclusão às Pessoas com Deficiência: redução devido à baixa demanda pelo Auxílio Inclusão, contabilizada a execução inferior à esperada nos meses anteriores e a revisão de expectativas quanto à adesão futura.</t>
   </si>
 </sst>
 </file>
@@ -856,7 +815,7 @@
     <numFmt numFmtId="169" formatCode="#,##0.0_);\(#,##0.0\)"/>
     <numFmt numFmtId="170" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -974,12 +933,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -1009,30 +962,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <u/>
+      <sz val="12"/>
+      <color indexed="9"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1079,7 +1017,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1230,129 +1168,15 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1483,7 +1307,6 @@
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
@@ -1500,9 +1323,6 @@
       <alignment horizontal="right" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1517,10 +1337,6 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="4" fontId="13" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" indent="2"/>
       <protection locked="0"/>
@@ -1545,10 +1361,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="169" fontId="13" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="4" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
@@ -1615,63 +1427,35 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="12" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="19" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="165" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="20" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="21" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" indent="2"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="2"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="165" fontId="12" fillId="7" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="22" fillId="6" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="21" fillId="6" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="169" fontId="22" fillId="6" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1683,101 +1467,55 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="13" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="169" fontId="13" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="23" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="13" fillId="5" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="43" fontId="21" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="169" fontId="13" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="169" fontId="13" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="2"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="169" fontId="26" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="169" fontId="26" fillId="5" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="169" fontId="26" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="27" fillId="6" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="22" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="169" fontId="22" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="4" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="10" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="23" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
     <cellStyle name="Separador de milhares_NFGC_ASTEC 4" xfId="3" xr:uid="{A3BCCA6E-6563-4C8F-8A47-FA75EF78D544}"/>
+    <cellStyle name="Vírgula" xfId="4" builtinId="3"/>
     <cellStyle name="Vírgula 7" xfId="2" xr:uid="{529074A0-16D7-458B-BF56-30D2E2B6AA90}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2692,9 +2430,6 @@
           <cell r="T50">
             <v>1723470.0593104721</v>
           </cell>
-          <cell r="V50">
-            <v>45818.815408420982</v>
-          </cell>
         </row>
         <row r="51">
           <cell r="F51">
@@ -2763,486 +2498,6 @@
           </cell>
           <cell r="T53">
             <v>252510.33953165956</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="F54">
-            <v>65822.521438000011</v>
-          </cell>
-          <cell r="H54">
-            <v>64376.6510652824</v>
-          </cell>
-          <cell r="J54">
-            <v>65377.056970159996</v>
-          </cell>
-          <cell r="L54">
-            <v>65874.69817376</v>
-          </cell>
-          <cell r="N54">
-            <v>65822.521438000011</v>
-          </cell>
-          <cell r="R54">
-            <v>65822.521438000011</v>
-          </cell>
-          <cell r="T54">
-            <v>65822.521438000011</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="F55">
-            <v>174.093797</v>
-          </cell>
-          <cell r="H55">
-            <v>174.093797</v>
-          </cell>
-          <cell r="J55">
-            <v>174.093797</v>
-          </cell>
-          <cell r="L55">
-            <v>174.093797</v>
-          </cell>
-          <cell r="N55">
-            <v>174.093797</v>
-          </cell>
-          <cell r="R55">
-            <v>174.093797</v>
-          </cell>
-          <cell r="T55">
-            <v>174.093797</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="H56">
-            <v>0</v>
-          </cell>
-          <cell r="J56">
-            <v>0</v>
-          </cell>
-          <cell r="L56">
-            <v>10162</v>
-          </cell>
-          <cell r="N56">
-            <v>0</v>
-          </cell>
-          <cell r="R56">
-            <v>0</v>
-          </cell>
-          <cell r="T56">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="F58">
-            <v>803.07874800000002</v>
-          </cell>
-          <cell r="H58">
-            <v>803.07874800000002</v>
-          </cell>
-          <cell r="J58">
-            <v>773.07874800000002</v>
-          </cell>
-          <cell r="L58">
-            <v>773.08159999999998</v>
-          </cell>
-          <cell r="N58">
-            <v>803.07874800000002</v>
-          </cell>
-          <cell r="R58">
-            <v>803.07874800000002</v>
-          </cell>
-          <cell r="T58">
-            <v>803.07874800000002</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="F59">
-            <v>76168.434958999991</v>
-          </cell>
-          <cell r="H59">
-            <v>76025.734694252591</v>
-          </cell>
-          <cell r="J59">
-            <v>76957.988756999999</v>
-          </cell>
-          <cell r="L59">
-            <v>77961.388789966324</v>
-          </cell>
-          <cell r="N59">
-            <v>76168.477928999986</v>
-          </cell>
-          <cell r="R59">
-            <v>76168.477928999986</v>
-          </cell>
-          <cell r="T59">
-            <v>76168.477928999986</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="F61">
-            <v>0</v>
-          </cell>
-          <cell r="H61">
-            <v>0</v>
-          </cell>
-          <cell r="J61">
-            <v>0</v>
-          </cell>
-          <cell r="L61">
-            <v>0</v>
-          </cell>
-          <cell r="N61">
-            <v>0</v>
-          </cell>
-          <cell r="R61">
-            <v>0</v>
-          </cell>
-          <cell r="T61">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="F62">
-            <v>0</v>
-          </cell>
-          <cell r="H62">
-            <v>23837.710497339998</v>
-          </cell>
-          <cell r="J62">
-            <v>23818.043290580001</v>
-          </cell>
-          <cell r="L62">
-            <v>58705.971586129999</v>
-          </cell>
-          <cell r="N62">
-            <v>0</v>
-          </cell>
-          <cell r="R62">
-            <v>0</v>
-          </cell>
-          <cell r="T62">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="F63">
-            <v>3192.1071339999999</v>
-          </cell>
-          <cell r="H63">
-            <v>3247.600557376878</v>
-          </cell>
-          <cell r="J63">
-            <v>3096.0899999999997</v>
-          </cell>
-          <cell r="L63">
-            <v>3096.0899999999997</v>
-          </cell>
-          <cell r="N63">
-            <v>3192.1071339999999</v>
-          </cell>
-          <cell r="R63">
-            <v>3192.1071339999999</v>
-          </cell>
-          <cell r="T63">
-            <v>3192.1071339999999</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="F67">
-            <v>1088</v>
-          </cell>
-          <cell r="H67">
-            <v>1088</v>
-          </cell>
-          <cell r="J67">
-            <v>1088</v>
-          </cell>
-          <cell r="L67">
-            <v>1088</v>
-          </cell>
-          <cell r="N67">
-            <v>1088</v>
-          </cell>
-          <cell r="R67">
-            <v>1088</v>
-          </cell>
-          <cell r="T67">
-            <v>1088</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="F68">
-            <v>30082.944155000001</v>
-          </cell>
-          <cell r="H68">
-            <v>32526.890330869999</v>
-          </cell>
-          <cell r="J68">
-            <v>33704.71967726</v>
-          </cell>
-          <cell r="L68">
-            <v>33389.21427787</v>
-          </cell>
-          <cell r="N68">
-            <v>30082.944155000001</v>
-          </cell>
-          <cell r="R68">
-            <v>30082.944155000001</v>
-          </cell>
-          <cell r="T68">
-            <v>30082.944155000001</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="F69">
-            <v>2271.5726099999993</v>
-          </cell>
-          <cell r="H69">
-            <v>2277.490597</v>
-          </cell>
-          <cell r="J69">
-            <v>2308.490597</v>
-          </cell>
-          <cell r="L69">
-            <v>2308.3375529999994</v>
-          </cell>
-          <cell r="N69">
-            <v>2271.5726099999993</v>
-          </cell>
-          <cell r="R69">
-            <v>2271.5726099999993</v>
-          </cell>
-          <cell r="T69">
-            <v>2271.5726099999993</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="F70">
-            <v>0</v>
-          </cell>
-          <cell r="H70">
-            <v>0</v>
-          </cell>
-          <cell r="J70">
-            <v>0</v>
-          </cell>
-          <cell r="L70">
-            <v>0</v>
-          </cell>
-          <cell r="N70">
-            <v>0</v>
-          </cell>
-          <cell r="R70">
-            <v>0</v>
-          </cell>
-          <cell r="T70">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="F71">
-            <v>17993.648703999999</v>
-          </cell>
-          <cell r="H71">
-            <v>18225.377805999997</v>
-          </cell>
-          <cell r="J71">
-            <v>18225.377805999997</v>
-          </cell>
-          <cell r="L71">
-            <v>17989.600804999998</v>
-          </cell>
-          <cell r="N71">
-            <v>17993.648703999999</v>
-          </cell>
-          <cell r="R71">
-            <v>17993.648703999999</v>
-          </cell>
-          <cell r="T71">
-            <v>17993.648703999999</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="F76">
-            <v>4000</v>
-          </cell>
-          <cell r="H76">
-            <v>4000</v>
-          </cell>
-          <cell r="J76">
-            <v>4000</v>
-          </cell>
-          <cell r="L76">
-            <v>4000</v>
-          </cell>
-          <cell r="N76">
-            <v>4000</v>
-          </cell>
-          <cell r="R76">
-            <v>4000</v>
-          </cell>
-          <cell r="T76">
-            <v>4000</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="F77">
-            <v>2401.8593040000001</v>
-          </cell>
-          <cell r="H77">
-            <v>0</v>
-          </cell>
-          <cell r="J77">
-            <v>0</v>
-          </cell>
-          <cell r="L77">
-            <v>0</v>
-          </cell>
-          <cell r="N77">
-            <v>2401.8593040000001</v>
-          </cell>
-          <cell r="R77">
-            <v>2401.8593040000001</v>
-          </cell>
-          <cell r="T77">
-            <v>2401.8593040000001</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="F79">
-            <v>26979.334211999998</v>
-          </cell>
-          <cell r="H79">
-            <v>29381.193515999999</v>
-          </cell>
-          <cell r="J79">
-            <v>19454.928241000001</v>
-          </cell>
-          <cell r="L79">
-            <v>19182.582804999998</v>
-          </cell>
-          <cell r="N79">
-            <v>26979.334211999998</v>
-          </cell>
-          <cell r="R79">
-            <v>26979.334211999998</v>
-          </cell>
-          <cell r="T79">
-            <v>26979.334211999998</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="F80">
-            <v>13377.631358659557</v>
-          </cell>
-          <cell r="H80">
-            <v>18471.966013661509</v>
-          </cell>
-          <cell r="J80">
-            <v>23035.501975169766</v>
-          </cell>
-          <cell r="L80">
-            <v>22278.757706546177</v>
-          </cell>
-          <cell r="N80">
-            <v>13377.631358659557</v>
-          </cell>
-          <cell r="R80">
-            <v>13377.631358659557</v>
-          </cell>
-          <cell r="T80">
-            <v>13377.631358659557</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="F83">
-            <v>169.89536200000001</v>
-          </cell>
-          <cell r="H83">
-            <v>121.67674100000001</v>
-          </cell>
-          <cell r="J83">
-            <v>131.979512</v>
-          </cell>
-          <cell r="L83">
-            <v>137.919265</v>
-          </cell>
-          <cell r="N83">
-            <v>169.89536200000001</v>
-          </cell>
-          <cell r="R83">
-            <v>169.89536200000001</v>
-          </cell>
-          <cell r="T83">
-            <v>169.89536200000001</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="F84">
-            <v>1380.273768</v>
-          </cell>
-          <cell r="H84">
-            <v>1487.955483</v>
-          </cell>
-          <cell r="J84">
-            <v>1482.976435</v>
-          </cell>
-          <cell r="L84">
-            <v>1483.409269</v>
-          </cell>
-          <cell r="N84">
-            <v>1380.273768</v>
-          </cell>
-          <cell r="R84">
-            <v>1380.273768</v>
-          </cell>
-          <cell r="T84">
-            <v>1380.273768</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="F85">
-            <v>1643.3812350000001</v>
-          </cell>
-          <cell r="H85">
-            <v>968.60924077713685</v>
-          </cell>
-          <cell r="J85">
-            <v>905.04364763196531</v>
-          </cell>
-          <cell r="L85">
-            <v>1102.7373349499801</v>
-          </cell>
-          <cell r="N85">
-            <v>1643.3812350000001</v>
-          </cell>
-          <cell r="R85">
-            <v>1643.3812350000001</v>
-          </cell>
-          <cell r="T85">
-            <v>1643.3812350000001</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="F86">
-            <v>4961.5197770000004</v>
-          </cell>
-          <cell r="H86">
-            <v>4961.5197770000004</v>
-          </cell>
-          <cell r="J86">
-            <v>4961.5197770000004</v>
-          </cell>
-          <cell r="L86">
-            <v>4961.5197770000004</v>
-          </cell>
-          <cell r="N86">
-            <v>4961.5197770000004</v>
-          </cell>
-          <cell r="R86">
-            <v>4961.5197770000004</v>
-          </cell>
-          <cell r="T86">
-            <v>4961.5197770000004</v>
           </cell>
         </row>
         <row r="87">
@@ -4796,7 +4051,7 @@
   <dimension ref="A4:Z67"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4804,10 +4059,11 @@
     <col min="1" max="1" width="60" style="31" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" style="31" customWidth="1"/>
     <col min="3" max="3" width="19.42578125" style="31" hidden="1" customWidth="1"/>
-    <col min="4" max="5" width="19.42578125" style="31" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" style="31" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" style="31" customWidth="1"/>
     <col min="6" max="8" width="19.42578125" style="31" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="19.42578125" style="31" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" style="31" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" style="96" customWidth="1"/>
     <col min="11" max="11" width="38.5703125" style="31" customWidth="1"/>
     <col min="12" max="12" width="9.140625" style="31"/>
     <col min="13" max="13" width="29.140625" style="31" customWidth="1"/>
@@ -4857,6 +4113,9 @@
       <c r="I5" s="33" t="s">
         <v>10</v>
       </c>
+      <c r="J5" s="97" t="s">
+        <v>108</v>
+      </c>
       <c r="K5" s="31"/>
       <c r="L5" s="31"/>
       <c r="M5" s="31"/>
@@ -4910,965 +4169,995 @@
         <f>E7-D7</f>
         <v>59014.225466815289</v>
       </c>
-      <c r="J7" s="38"/>
-      <c r="P7" s="39"/>
+      <c r="J7" s="98"/>
+      <c r="P7" s="38"/>
     </row>
     <row r="8" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="40"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-    </row>
-    <row r="9" spans="1:26" s="45" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="42" t="s">
+      <c r="A8" s="39"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+    </row>
+    <row r="9" spans="1:26" s="43" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="43">
+      <c r="B9" s="42">
         <f t="shared" ref="B9:C9" si="1">SUM(B10:B19)</f>
         <v>1288900.1474680002</v>
       </c>
-      <c r="C9" s="43">
+      <c r="C9" s="42">
         <f t="shared" si="1"/>
         <v>1285606.7644786576</v>
       </c>
-      <c r="D9" s="43">
+      <c r="D9" s="42">
         <f t="shared" ref="D9:H9" si="2">SUM(D10:D19)</f>
         <v>1332144.2973715181</v>
       </c>
-      <c r="E9" s="43">
+      <c r="E9" s="42">
         <f t="shared" si="2"/>
         <v>1342558.0132083837</v>
       </c>
-      <c r="F9" s="43">
+      <c r="F9" s="42">
         <f t="shared" si="2"/>
         <v>1288900.1474904732</v>
       </c>
-      <c r="G9" s="43">
+      <c r="G9" s="42">
         <f t="shared" si="2"/>
         <v>1288900.1474904732</v>
       </c>
-      <c r="H9" s="43">
+      <c r="H9" s="42">
         <f t="shared" si="2"/>
         <v>1288900.1474904732</v>
       </c>
-      <c r="I9" s="43">
+      <c r="I9" s="42">
         <f t="shared" ref="I9:I44" si="3">E9-D9</f>
         <v>10413.715836865595</v>
       </c>
-      <c r="J9" s="44"/>
-      <c r="P9" s="46"/>
+      <c r="J9" s="99"/>
+      <c r="P9" s="44"/>
     </row>
     <row r="10" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="47" t="s">
+      <c r="A10" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="48">
+      <c r="B10" s="46">
         <f>[2]Financeira_base!F9</f>
         <v>60882.711119</v>
       </c>
-      <c r="C10" s="48">
+      <c r="C10" s="46">
         <f>[2]Financeira_base!H9</f>
         <v>60807.171731498696</v>
       </c>
-      <c r="D10" s="48">
+      <c r="D10" s="46">
         <f>[2]Financeira_base!J9</f>
         <v>57753.598505177397</v>
       </c>
-      <c r="E10" s="48">
+      <c r="E10" s="46">
         <f>[2]Financeira_base!L9</f>
         <v>55646.54731967704</v>
       </c>
-      <c r="F10" s="48">
+      <c r="F10" s="46">
         <f>[2]Financeira_base!N9</f>
         <v>60882.711141503591</v>
       </c>
-      <c r="G10" s="48">
+      <c r="G10" s="46">
         <f>[2]Financeira_base!R9</f>
         <v>60882.711141503591</v>
       </c>
-      <c r="H10" s="48">
+      <c r="H10" s="46">
         <f>[2]Financeira_base!T9</f>
         <v>60882.711141503591</v>
       </c>
-      <c r="I10" s="48">
+      <c r="I10" s="46">
         <f t="shared" si="3"/>
         <v>-2107.051185500357</v>
       </c>
-      <c r="J10" s="49"/>
-      <c r="P10" s="39"/>
+      <c r="J10" s="95" t="s">
+        <v>109</v>
+      </c>
+      <c r="P10" s="38"/>
     </row>
     <row r="11" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="48">
+      <c r="B11" s="46">
         <f>[2]Financeira_base!F10</f>
         <v>83677.898115999997</v>
       </c>
-      <c r="C11" s="48">
+      <c r="C11" s="46">
         <f>[2]Financeira_base!H10</f>
         <v>55459.262772345806</v>
       </c>
-      <c r="D11" s="48">
+      <c r="D11" s="46">
         <f>[2]Financeira_base!J10</f>
         <v>59299.448244117077</v>
       </c>
-      <c r="E11" s="48">
+      <c r="E11" s="46">
         <f>[2]Financeira_base!L10</f>
         <v>61762.80718225133</v>
       </c>
-      <c r="F11" s="48">
+      <c r="F11" s="46">
         <f>[2]Financeira_base!N10</f>
         <v>83677.898117025485</v>
       </c>
-      <c r="G11" s="48">
+      <c r="G11" s="46">
         <f>[2]Financeira_base!R10</f>
         <v>83677.898117025485</v>
       </c>
-      <c r="H11" s="48">
+      <c r="H11" s="46">
         <f>[2]Financeira_base!T10</f>
         <v>83677.898117025485</v>
       </c>
-      <c r="I11" s="48">
+      <c r="I11" s="46">
         <f t="shared" si="3"/>
         <v>2463.3589381342535</v>
       </c>
-      <c r="J11" s="49"/>
-      <c r="P11" s="39"/>
+      <c r="J11" s="95" t="s">
+        <v>110</v>
+      </c>
+      <c r="P11" s="38"/>
     </row>
     <row r="12" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="48">
+      <c r="B12" s="46">
         <f>[2]Financeira_base!F11+[2]Financeira_base!F20</f>
         <v>546710.88539099996</v>
       </c>
-      <c r="C12" s="48">
+      <c r="C12" s="46">
         <f>[2]Financeira_base!H11+[2]Financeira_base!H20</f>
         <v>595448.54148747458</v>
       </c>
-      <c r="D12" s="48">
+      <c r="D12" s="46">
         <f>[2]Financeira_base!J11+[2]Financeira_base!J20</f>
         <v>630867.19090443593</v>
       </c>
-      <c r="E12" s="48">
+      <c r="E12" s="46">
         <f>[2]Financeira_base!L11+[2]Financeira_base!L20</f>
         <v>649101.65094053175</v>
       </c>
-      <c r="F12" s="48">
+      <c r="F12" s="46">
         <f>[2]Financeira_base!N11+[2]Financeira_base!N20</f>
         <v>546710.88539099996</v>
       </c>
-      <c r="G12" s="48">
+      <c r="G12" s="46">
         <f>[2]Financeira_base!R11+[2]Financeira_base!R20</f>
         <v>546710.88539099996</v>
       </c>
-      <c r="H12" s="48">
+      <c r="H12" s="46">
         <f>[2]Financeira_base!T11+[2]Financeira_base!T20</f>
         <v>546710.88539099996</v>
       </c>
-      <c r="I12" s="48">
+      <c r="I12" s="46">
         <f t="shared" si="3"/>
         <v>18234.460036095814</v>
       </c>
-      <c r="J12" s="49"/>
-      <c r="P12" s="39"/>
+      <c r="J12" t="s">
+        <v>112</v>
+      </c>
+      <c r="P12" s="38"/>
     </row>
     <row r="13" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="47" t="s">
+      <c r="A13" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="48">
+      <c r="B13" s="46">
         <f>[2]Financeira_base!F12</f>
         <v>51804.992936000002</v>
       </c>
-      <c r="C13" s="48">
+      <c r="C13" s="46">
         <f>[2]Financeira_base!H12</f>
         <v>56271.10376977612</v>
       </c>
-      <c r="D13" s="48">
+      <c r="D13" s="46">
         <f>[2]Financeira_base!J12</f>
         <v>63280.448807172754</v>
       </c>
-      <c r="E13" s="48">
+      <c r="E13" s="46">
         <f>[2]Financeira_base!L12</f>
         <v>62552.136978696435</v>
       </c>
-      <c r="F13" s="48">
+      <c r="F13" s="46">
         <f>[2]Financeira_base!N12</f>
         <v>51804.992935598333</v>
       </c>
-      <c r="G13" s="48">
+      <c r="G13" s="46">
         <f>[2]Financeira_base!R12</f>
         <v>51804.992935598333</v>
       </c>
-      <c r="H13" s="48">
+      <c r="H13" s="46">
         <f>[2]Financeira_base!T12</f>
         <v>51804.992935598333</v>
       </c>
-      <c r="I13" s="48">
+      <c r="I13" s="46">
         <f t="shared" si="3"/>
         <v>-728.31182847631862</v>
       </c>
-      <c r="J13" s="49"/>
-      <c r="P13" s="39"/>
-      <c r="Z13" s="39"/>
+      <c r="J13" s="95"/>
+      <c r="P13" s="38"/>
+      <c r="Z13" s="38"/>
     </row>
     <row r="14" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="48">
+      <c r="B14" s="46">
         <f>[2]Financeira_base!F13</f>
         <v>313948.11138000002</v>
       </c>
-      <c r="C14" s="48">
+      <c r="C14" s="46">
         <f>[2]Financeira_base!H13</f>
         <v>278683.38376867212</v>
       </c>
-      <c r="D14" s="48">
+      <c r="D14" s="46">
         <f>[2]Financeira_base!J13</f>
         <v>266530.45803523425</v>
       </c>
-      <c r="E14" s="48">
+      <c r="E14" s="46">
         <f>[2]Financeira_base!L13</f>
         <v>257328.68199703089</v>
       </c>
-      <c r="F14" s="48">
+      <c r="F14" s="46">
         <f>[2]Financeira_base!N13</f>
         <v>313948.11137996498</v>
       </c>
-      <c r="G14" s="48">
+      <c r="G14" s="46">
         <f>[2]Financeira_base!R13</f>
         <v>313948.11137996498</v>
       </c>
-      <c r="H14" s="48">
+      <c r="H14" s="46">
         <f>[2]Financeira_base!T13</f>
         <v>313948.11137996498</v>
       </c>
-      <c r="I14" s="48">
+      <c r="I14" s="46">
         <f t="shared" si="3"/>
         <v>-9201.7760382033593</v>
       </c>
-      <c r="J14" s="49"/>
-      <c r="P14" s="39"/>
+      <c r="J14" t="s">
+        <v>111</v>
+      </c>
+      <c r="P14" s="38"/>
     </row>
     <row r="15" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="47" t="s">
+      <c r="A15" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="48">
+      <c r="B15" s="46">
         <f>[2]Financeira_base!F14</f>
         <v>86391.960779000001</v>
       </c>
-      <c r="C15" s="48">
+      <c r="C15" s="46">
         <f>[2]Financeira_base!H14</f>
         <v>79696.944748727256</v>
       </c>
-      <c r="D15" s="48">
+      <c r="D15" s="46">
         <f>[2]Financeira_base!J14</f>
         <v>80510.92824000759</v>
       </c>
-      <c r="E15" s="48">
+      <c r="E15" s="46">
         <f>[2]Financeira_base!L14</f>
         <v>78373.652049312994</v>
       </c>
-      <c r="F15" s="48">
+      <c r="F15" s="46">
         <f>[2]Financeira_base!N14</f>
         <v>86391.960779102999</v>
       </c>
-      <c r="G15" s="48">
+      <c r="G15" s="46">
         <f>[2]Financeira_base!R14</f>
         <v>86391.960779102999</v>
       </c>
-      <c r="H15" s="48">
+      <c r="H15" s="46">
         <f>[2]Financeira_base!T14</f>
         <v>86391.960779102999</v>
       </c>
-      <c r="I15" s="48">
+      <c r="I15" s="46">
         <f t="shared" si="3"/>
         <v>-2137.2761906945962</v>
       </c>
-      <c r="J15" s="49"/>
-      <c r="P15" s="39"/>
+      <c r="J15" t="s">
+        <v>111</v>
+      </c>
+      <c r="P15" s="38"/>
     </row>
     <row r="16" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="47" t="s">
+      <c r="A16" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="48">
+      <c r="B16" s="46">
         <f>[2]Financeira_base!F15</f>
         <v>111081.57260300001</v>
       </c>
-      <c r="C16" s="48">
+      <c r="C16" s="46">
         <f>[2]Financeira_base!H15</f>
         <v>127085.92773880782</v>
       </c>
-      <c r="D16" s="48">
+      <c r="D16" s="46">
         <f>[2]Financeira_base!J15</f>
         <v>143358.20318794559</v>
       </c>
-      <c r="E16" s="48">
+      <c r="E16" s="46">
         <f>[2]Financeira_base!L15</f>
         <v>147238.85616239085</v>
       </c>
-      <c r="F16" s="48">
+      <c r="F16" s="46">
         <f>[2]Financeira_base!N15</f>
         <v>111081.57260333616</v>
       </c>
-      <c r="G16" s="48">
+      <c r="G16" s="46">
         <f>[2]Financeira_base!R15</f>
         <v>111081.57260333616</v>
       </c>
-      <c r="H16" s="48">
+      <c r="H16" s="46">
         <f>[2]Financeira_base!T15</f>
         <v>111081.57260333616</v>
       </c>
-      <c r="I16" s="48">
+      <c r="I16" s="46">
         <f t="shared" si="3"/>
         <v>3880.6529744452564</v>
       </c>
-      <c r="J16" s="49"/>
-      <c r="P16" s="39"/>
+      <c r="J16" t="s">
+        <v>113</v>
+      </c>
+      <c r="P16" s="38"/>
     </row>
     <row r="17" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="48">
+      <c r="B17" s="46">
         <f>[2]Financeira_base!F16</f>
         <v>0</v>
       </c>
-      <c r="C17" s="48">
+      <c r="C17" s="46">
         <f>[2]Financeira_base!H16</f>
         <v>0.50030680599634847</v>
       </c>
-      <c r="D17" s="48">
+      <c r="D17" s="46">
         <f>[2]Financeira_base!J16</f>
         <v>0.4002454447970788</v>
       </c>
-      <c r="E17" s="48">
+      <c r="E17" s="46">
         <f>[2]Financeira_base!L16</f>
         <v>0</v>
       </c>
-      <c r="F17" s="48">
+      <c r="F17" s="46">
         <f>[2]Financeira_base!N16</f>
         <v>0</v>
       </c>
-      <c r="G17" s="48">
+      <c r="G17" s="46">
         <f>[2]Financeira_base!R16</f>
         <v>0</v>
       </c>
-      <c r="H17" s="48">
+      <c r="H17" s="46">
         <f>[2]Financeira_base!T16</f>
         <v>0</v>
       </c>
-      <c r="I17" s="48">
+      <c r="I17" s="46">
         <f t="shared" si="3"/>
         <v>-0.4002454447970788</v>
       </c>
-      <c r="J17" s="49"/>
-      <c r="P17" s="39"/>
+      <c r="J17" s="95"/>
+      <c r="P17" s="38"/>
     </row>
     <row r="18" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="47" t="s">
+      <c r="A18" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="48">
+      <c r="B18" s="46">
         <f>[2]Financeira_base!F17</f>
         <v>1903.2212339999999</v>
       </c>
-      <c r="C18" s="48">
+      <c r="C18" s="46">
         <f>[2]Financeira_base!H17</f>
         <v>3060.6377470534021</v>
       </c>
-      <c r="D18" s="48">
+      <c r="D18" s="46">
         <f>[2]Financeira_base!J17</f>
         <v>3565.5117622271873</v>
       </c>
-      <c r="E18" s="48">
+      <c r="E18" s="46">
         <f>[2]Financeira_base!L17</f>
         <v>1939.3534370173527</v>
       </c>
-      <c r="F18" s="48">
+      <c r="F18" s="46">
         <f>[2]Financeira_base!N17</f>
         <v>1903.2212347517591</v>
       </c>
-      <c r="G18" s="48">
+      <c r="G18" s="46">
         <f>[2]Financeira_base!R17</f>
         <v>1903.2212347517591</v>
       </c>
-      <c r="H18" s="48">
+      <c r="H18" s="46">
         <f>[2]Financeira_base!T17</f>
         <v>1903.2212347517591</v>
       </c>
-      <c r="I18" s="48">
+      <c r="I18" s="46">
         <f t="shared" si="3"/>
         <v>-1626.1583252098346</v>
       </c>
-      <c r="J18" s="49"/>
-      <c r="P18" s="39"/>
+      <c r="J18" t="s">
+        <v>114</v>
+      </c>
+      <c r="P18" s="38"/>
     </row>
     <row r="19" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="50" t="s">
+      <c r="A19" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="48">
+      <c r="B19" s="46">
         <f>[2]Financeira_base!F18</f>
         <v>32498.79391</v>
       </c>
-      <c r="C19" s="48">
+      <c r="C19" s="46">
         <f>[2]Financeira_base!H18</f>
         <v>29093.290407495871</v>
       </c>
-      <c r="D19" s="48">
+      <c r="D19" s="46">
         <f>[2]Financeira_base!J18</f>
         <v>26978.109439755732</v>
       </c>
-      <c r="E19" s="48">
+      <c r="E19" s="46">
         <f>[2]Financeira_base!L18</f>
         <v>28614.327141474874</v>
       </c>
-      <c r="F19" s="48">
+      <c r="F19" s="46">
         <f>[2]Financeira_base!N18</f>
         <v>32498.793908189899</v>
       </c>
-      <c r="G19" s="48">
+      <c r="G19" s="46">
         <f>[2]Financeira_base!R18</f>
         <v>32498.793908189899</v>
       </c>
-      <c r="H19" s="48">
+      <c r="H19" s="46">
         <f>[2]Financeira_base!T18</f>
         <v>32498.793908189899</v>
       </c>
-      <c r="I19" s="48">
+      <c r="I19" s="46">
         <f t="shared" si="3"/>
         <v>1636.2177017191425</v>
       </c>
-      <c r="J19" s="49"/>
-      <c r="P19" s="39"/>
+      <c r="J19" s="95"/>
+      <c r="P19" s="38"/>
     </row>
     <row r="20" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="51" t="s">
+      <c r="A20" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="41">
+      <c r="B20" s="40">
         <f>[2]Financeira_base!F21</f>
         <v>499352.60304972524</v>
       </c>
-      <c r="C20" s="41">
+      <c r="C20" s="40">
         <f>[2]Financeira_base!H21</f>
         <v>527286.20202958328</v>
       </c>
-      <c r="D20" s="41">
+      <c r="D20" s="40">
         <f>[2]Financeira_base!J21</f>
         <v>531455.76917351084</v>
       </c>
-      <c r="E20" s="41">
+      <c r="E20" s="40">
         <f>[2]Financeira_base!L21</f>
         <v>536717.79129945999</v>
       </c>
-      <c r="F20" s="41">
+      <c r="F20" s="40">
         <f>[2]Financeira_base!N21</f>
         <v>499352.60304972524</v>
       </c>
-      <c r="G20" s="41">
+      <c r="G20" s="40">
         <f>[2]Financeira_base!R21</f>
         <v>499352.60304972524</v>
       </c>
-      <c r="H20" s="41">
+      <c r="H20" s="40">
         <f>[2]Financeira_base!T21</f>
         <v>499352.60304972524</v>
       </c>
-      <c r="I20" s="41">
+      <c r="I20" s="40">
         <f t="shared" si="3"/>
         <v>5262.0221259491518</v>
       </c>
-      <c r="J20" s="38"/>
-      <c r="P20" s="39"/>
+      <c r="J20" t="s">
+        <v>115</v>
+      </c>
+      <c r="P20" s="38"/>
     </row>
     <row r="21" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="51" t="s">
+      <c r="A21" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="41">
+      <c r="B21" s="40">
         <f t="shared" ref="B21:H21" si="4">SUM(B22:B28,B29,B32)</f>
         <v>242267.47210510931</v>
       </c>
-      <c r="C21" s="41">
+      <c r="C21" s="40">
         <f t="shared" si="4"/>
         <v>305120.20144001383</v>
       </c>
-      <c r="D21" s="41">
+      <c r="D21" s="40">
         <f t="shared" si="4"/>
         <v>303528.44539800001</v>
       </c>
-      <c r="E21" s="41">
+      <c r="E21" s="40">
         <f t="shared" si="4"/>
         <v>346866.93290200079</v>
       </c>
-      <c r="F21" s="41">
+      <c r="F21" s="40">
         <f t="shared" si="4"/>
         <v>242267.47210510931</v>
       </c>
-      <c r="G21" s="41">
+      <c r="G21" s="40">
         <f t="shared" si="4"/>
         <v>242267.47210510931</v>
       </c>
-      <c r="H21" s="41">
+      <c r="H21" s="40">
         <f t="shared" si="4"/>
         <v>242267.47210510931</v>
       </c>
-      <c r="I21" s="41">
+      <c r="I21" s="40">
         <f t="shared" si="3"/>
         <v>43338.487504000776</v>
       </c>
-      <c r="J21" s="38"/>
-      <c r="P21" s="39"/>
+      <c r="J21" s="98"/>
+      <c r="P21" s="38"/>
     </row>
     <row r="22" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="52" t="s">
+      <c r="A22" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="48">
+      <c r="B22" s="46">
         <f>[2]Financeira_base!F26</f>
         <v>5137.1889950000004</v>
       </c>
-      <c r="C22" s="48">
+      <c r="C22" s="46">
         <f>[2]Financeira_base!H26</f>
         <v>16343.737738</v>
       </c>
-      <c r="D22" s="48">
+      <c r="D22" s="46">
         <f>[2]Financeira_base!J26</f>
         <v>17783.854224999999</v>
       </c>
-      <c r="E22" s="48">
+      <c r="E22" s="46">
         <f>[2]Financeira_base!L26</f>
         <v>44659.254241528703</v>
       </c>
-      <c r="F22" s="48">
+      <c r="F22" s="46">
         <f>[2]Financeira_base!N26</f>
         <v>5137.1889950000004</v>
       </c>
-      <c r="G22" s="48">
+      <c r="G22" s="46">
         <f>[2]Financeira_base!R26</f>
         <v>5137.1889950000004</v>
       </c>
-      <c r="H22" s="48">
+      <c r="H22" s="46">
         <f>[2]Financeira_base!T26</f>
         <v>5137.1889950000004</v>
       </c>
-      <c r="I22" s="48">
+      <c r="I22" s="46">
         <f t="shared" si="3"/>
         <v>26875.400016528703</v>
       </c>
-      <c r="J22" s="49"/>
-      <c r="P22" s="39"/>
+      <c r="J22" t="s">
+        <v>116</v>
+      </c>
+      <c r="P22" s="38"/>
     </row>
     <row r="23" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="52" t="s">
+      <c r="A23" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="48">
+      <c r="B23" s="46">
         <f>[2]Financeira_base!F27</f>
         <v>0</v>
       </c>
-      <c r="C23" s="48">
+      <c r="C23" s="46">
         <f>[2]Financeira_base!H27</f>
         <v>0</v>
       </c>
-      <c r="D23" s="48">
+      <c r="D23" s="46">
         <f>[2]Financeira_base!J27</f>
         <v>0</v>
       </c>
-      <c r="E23" s="48">
+      <c r="E23" s="46">
         <f>[2]Financeira_base!L27</f>
         <v>0</v>
       </c>
-      <c r="F23" s="48">
+      <c r="F23" s="46">
         <f>[2]Financeira_base!N27</f>
         <v>0</v>
       </c>
-      <c r="G23" s="48">
+      <c r="G23" s="46">
         <f>[2]Financeira_base!R27</f>
         <v>0</v>
       </c>
-      <c r="H23" s="48">
+      <c r="H23" s="46">
         <f>[2]Financeira_base!T27</f>
         <v>0</v>
       </c>
-      <c r="I23" s="48">
+      <c r="I23" s="46">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J23" s="49"/>
-      <c r="P23" s="39"/>
+      <c r="J23" s="95"/>
+      <c r="P23" s="38"/>
     </row>
     <row r="24" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="52" t="s">
+      <c r="A24" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="B24" s="48">
+      <c r="B24" s="46">
         <f>[2]Financeira_base!F28</f>
         <v>18592.092416</v>
       </c>
-      <c r="C24" s="48">
+      <c r="C24" s="46">
         <f>[2]Financeira_base!H28</f>
         <v>17259.145381999999</v>
       </c>
-      <c r="D24" s="48">
+      <c r="D24" s="46">
         <f>[2]Financeira_base!J28</f>
         <v>17322.703079999999</v>
       </c>
-      <c r="E24" s="48">
+      <c r="E24" s="46">
         <f>[2]Financeira_base!L28</f>
         <v>17317.409446000001</v>
       </c>
-      <c r="F24" s="48">
+      <c r="F24" s="46">
         <f>[2]Financeira_base!N28</f>
         <v>18592.092416</v>
       </c>
-      <c r="G24" s="48">
+      <c r="G24" s="46">
         <f>[2]Financeira_base!R28</f>
         <v>18592.092416</v>
       </c>
-      <c r="H24" s="48">
+      <c r="H24" s="46">
         <f>[2]Financeira_base!T28</f>
         <v>18592.092416</v>
       </c>
-      <c r="I24" s="48">
+      <c r="I24" s="46">
         <f t="shared" si="3"/>
         <v>-5.2936339999978372</v>
       </c>
-      <c r="J24" s="49"/>
-      <c r="P24" s="39"/>
+      <c r="J24" t="s">
+        <v>117</v>
+      </c>
+      <c r="P24" s="38"/>
     </row>
     <row r="25" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="53" t="s">
+      <c r="A25" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="48">
+      <c r="B25" s="46">
         <f>[2]Financeira_base!F29</f>
         <v>25728.5994843222</v>
       </c>
-      <c r="C25" s="48">
+      <c r="C25" s="46">
         <f>[2]Financeira_base!H29</f>
         <v>27510.569780999998</v>
       </c>
-      <c r="D25" s="48">
+      <c r="D25" s="46">
         <f>[2]Financeira_base!J29</f>
         <v>27622.679983000002</v>
       </c>
-      <c r="E25" s="48">
+      <c r="E25" s="46">
         <f>[2]Financeira_base!L29</f>
         <v>28019.517370000001</v>
       </c>
-      <c r="F25" s="48">
+      <c r="F25" s="46">
         <f>[2]Financeira_base!N29</f>
         <v>25728.5994843222</v>
       </c>
-      <c r="G25" s="48">
+      <c r="G25" s="46">
         <f>[2]Financeira_base!R29</f>
         <v>25728.5994843222</v>
       </c>
-      <c r="H25" s="48">
+      <c r="H25" s="46">
         <f>[2]Financeira_base!T29</f>
         <v>25728.5994843222</v>
       </c>
-      <c r="I25" s="48">
+      <c r="I25" s="46">
         <f t="shared" si="3"/>
         <v>396.83738699999958</v>
       </c>
-      <c r="J25" s="49"/>
-      <c r="P25" s="39"/>
+      <c r="J25" t="s">
+        <v>118</v>
+      </c>
+      <c r="P25" s="38"/>
     </row>
     <row r="26" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="53" t="s">
+      <c r="A26" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="48">
+      <c r="B26" s="46">
         <f>[2]Financeira_base!F30</f>
         <v>95870.442940787107</v>
       </c>
-      <c r="C26" s="48">
+      <c r="C26" s="46">
         <f>[2]Financeira_base!H30</f>
         <v>134508.509261</v>
       </c>
-      <c r="D26" s="48">
+      <c r="D26" s="46">
         <f>[2]Financeira_base!J30</f>
         <v>129023.070169</v>
       </c>
-      <c r="E26" s="48">
+      <c r="E26" s="46">
         <f>[2]Financeira_base!L30</f>
         <v>127433.422303</v>
       </c>
-      <c r="F26" s="48">
+      <c r="F26" s="46">
         <f>[2]Financeira_base!N30</f>
         <v>95870.442940787107</v>
       </c>
-      <c r="G26" s="48">
+      <c r="G26" s="46">
         <f>[2]Financeira_base!R30</f>
         <v>95870.442940787107</v>
       </c>
-      <c r="H26" s="48">
+      <c r="H26" s="46">
         <f>[2]Financeira_base!T30</f>
         <v>95870.442940787107</v>
       </c>
-      <c r="I26" s="48">
+      <c r="I26" s="46">
         <f t="shared" si="3"/>
         <v>-1589.6478659999993</v>
       </c>
-      <c r="J26" s="49"/>
-      <c r="P26" s="39"/>
+      <c r="J26" t="s">
+        <v>119</v>
+      </c>
+      <c r="P26" s="38"/>
     </row>
     <row r="27" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="52" t="s">
+      <c r="A27" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="B27" s="48">
+      <c r="B27" s="46">
         <f>[2]Financeira_base!F31</f>
         <v>26284.938576</v>
       </c>
-      <c r="C27" s="48">
+      <c r="C27" s="46">
         <f>[2]Financeira_base!H31</f>
         <v>39225.751969013792</v>
       </c>
-      <c r="D27" s="48">
+      <c r="D27" s="46">
         <f>[2]Financeira_base!J31</f>
         <v>35982.937320999998</v>
       </c>
-      <c r="E27" s="48">
+      <c r="E27" s="46">
         <f>[2]Financeira_base!L31</f>
         <v>54815.728897472101</v>
       </c>
-      <c r="F27" s="48">
+      <c r="F27" s="46">
         <f>[2]Financeira_base!N31</f>
         <v>26284.938576</v>
       </c>
-      <c r="G27" s="48">
+      <c r="G27" s="46">
         <f>[2]Financeira_base!R31</f>
         <v>26284.938576</v>
       </c>
-      <c r="H27" s="48">
+      <c r="H27" s="46">
         <f>[2]Financeira_base!T31</f>
         <v>26284.938576</v>
       </c>
-      <c r="I27" s="48">
+      <c r="I27" s="46">
         <f t="shared" si="3"/>
         <v>18832.791576472104</v>
       </c>
-      <c r="J27" s="49"/>
-      <c r="P27" s="39"/>
+      <c r="J27" t="s">
+        <v>120</v>
+      </c>
+      <c r="P27" s="38"/>
     </row>
     <row r="28" spans="1:16" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="52" t="s">
+      <c r="A28" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="B28" s="48">
+      <c r="B28" s="46">
         <f>[2]Financeira_base!F32</f>
         <v>0</v>
       </c>
-      <c r="C28" s="48">
+      <c r="C28" s="46">
         <f>[2]Financeira_base!H32</f>
         <v>0</v>
       </c>
-      <c r="D28" s="48">
+      <c r="D28" s="46">
         <f>[2]Financeira_base!I32</f>
         <v>0</v>
       </c>
-      <c r="E28" s="48">
+      <c r="E28" s="46">
         <f>[2]Financeira_base!L32</f>
         <v>0</v>
       </c>
-      <c r="F28" s="48">
+      <c r="F28" s="46">
         <f>[2]Financeira_base!N32</f>
         <v>0</v>
       </c>
-      <c r="G28" s="48">
+      <c r="G28" s="46">
         <f>[2]Financeira_base!R32</f>
         <v>0</v>
       </c>
-      <c r="H28" s="48">
+      <c r="H28" s="46">
         <f>[2]Financeira_base!T32</f>
         <v>0</v>
       </c>
-      <c r="I28" s="48">
+      <c r="I28" s="46">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J28" s="49"/>
-      <c r="P28" s="39"/>
+      <c r="J28" s="95"/>
+      <c r="P28" s="38"/>
     </row>
     <row r="29" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="52" t="s">
+      <c r="A29" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="B29" s="48">
+      <c r="B29" s="46">
         <f>[2]Financeira_base!F33</f>
         <v>18152.615951</v>
       </c>
-      <c r="C29" s="48">
+      <c r="C29" s="46">
         <f>[2]Financeira_base!H33</f>
         <v>18081.114793000001</v>
       </c>
-      <c r="D29" s="48">
+      <c r="D29" s="46">
         <f>[2]Financeira_base!J33</f>
         <v>17710.296055999999</v>
       </c>
-      <c r="E29" s="48">
+      <c r="E29" s="46">
         <f>[2]Financeira_base!L33</f>
         <v>18433.268317000002</v>
       </c>
-      <c r="F29" s="48">
+      <c r="F29" s="46">
         <f>[2]Financeira_base!N33</f>
         <v>18152.615951</v>
       </c>
-      <c r="G29" s="48">
+      <c r="G29" s="46">
         <f>[2]Financeira_base!R33</f>
         <v>18152.615951</v>
       </c>
-      <c r="H29" s="48">
+      <c r="H29" s="46">
         <f>[2]Financeira_base!T33</f>
         <v>18152.615951</v>
       </c>
-      <c r="I29" s="48">
+      <c r="I29" s="46">
         <f t="shared" si="3"/>
         <v>722.97226100000262</v>
       </c>
-      <c r="J29" s="49"/>
-      <c r="P29" s="39"/>
+      <c r="J29" t="s">
+        <v>121</v>
+      </c>
+      <c r="P29" s="38"/>
     </row>
     <row r="30" spans="1:16" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="54"/>
-      <c r="B30" s="48">
+      <c r="A30" s="51"/>
+      <c r="B30" s="46">
         <f>[2]Financeira_base!AD34</f>
         <v>0</v>
       </c>
-      <c r="C30" s="48">
+      <c r="C30" s="46">
         <f>[2]Financeira_base!AF34</f>
         <v>0</v>
       </c>
-      <c r="D30" s="48">
+      <c r="D30" s="46">
         <f>[2]Financeira_base!AG34</f>
         <v>0</v>
       </c>
-      <c r="E30" s="48">
+      <c r="E30" s="46">
         <f>[2]Financeira_base!AI34</f>
         <v>0</v>
       </c>
-      <c r="F30" s="48">
+      <c r="F30" s="46">
         <f>[2]Financeira_base!AK34</f>
         <v>0</v>
       </c>
-      <c r="G30" s="48">
+      <c r="G30" s="46">
         <f>[2]Financeira_base!AM34</f>
         <v>0</v>
       </c>
-      <c r="H30" s="48">
+      <c r="H30" s="46">
         <f>[2]Financeira_base!AO34</f>
         <v>0</v>
       </c>
-      <c r="I30" s="48">
+      <c r="I30" s="46">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="54"/>
-      <c r="B31" s="48">
+      <c r="A31" s="51"/>
+      <c r="B31" s="46">
         <f>[2]Financeira_base!AD35</f>
         <v>0</v>
       </c>
-      <c r="C31" s="48">
+      <c r="C31" s="46">
         <f>[2]Financeira_base!AF35</f>
         <v>0</v>
       </c>
-      <c r="D31" s="48">
+      <c r="D31" s="46">
         <f>[2]Financeira_base!AG35</f>
         <v>0</v>
       </c>
-      <c r="E31" s="48">
+      <c r="E31" s="46">
         <f>[2]Financeira_base!AI35</f>
         <v>0</v>
       </c>
-      <c r="F31" s="48">
+      <c r="F31" s="46">
         <f>[2]Financeira_base!AK35</f>
         <v>0</v>
       </c>
-      <c r="G31" s="48">
+      <c r="G31" s="46">
         <f>[2]Financeira_base!AM35</f>
         <v>0</v>
       </c>
-      <c r="H31" s="48">
+      <c r="H31" s="46">
         <f>[2]Financeira_base!AO35</f>
         <v>0</v>
       </c>
-      <c r="I31" s="48">
+      <c r="I31" s="46">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="52" t="s">
+      <c r="A32" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="B32" s="48">
+      <c r="B32" s="46">
         <f>[2]Financeira_base!F36</f>
         <v>52501.593742000012</v>
       </c>
-      <c r="C32" s="48">
+      <c r="C32" s="46">
         <f>[2]Financeira_base!H36</f>
         <v>52191.372515999996</v>
       </c>
-      <c r="D32" s="48">
+      <c r="D32" s="46">
         <f>[2]Financeira_base!J36</f>
         <v>58082.904564000004</v>
       </c>
-      <c r="E32" s="48">
+      <c r="E32" s="46">
         <f>[2]Financeira_base!L36</f>
         <v>56188.332326999989</v>
       </c>
-      <c r="F32" s="48">
+      <c r="F32" s="46">
         <f>[2]Financeira_base!N36</f>
         <v>52501.593742000012</v>
       </c>
-      <c r="G32" s="48">
+      <c r="G32" s="46">
         <f>[2]Financeira_base!R36</f>
         <v>52501.593742000012</v>
       </c>
-      <c r="H32" s="48">
+      <c r="H32" s="46">
         <f>[2]Financeira_base!T36</f>
         <v>52501.593742000012</v>
       </c>
-      <c r="I32" s="48">
+      <c r="I32" s="46">
         <f t="shared" si="3"/>
         <v>-1894.5722370000149</v>
       </c>
-      <c r="J32" s="49"/>
-      <c r="K32" s="39"/>
-      <c r="P32" s="39"/>
+      <c r="J32" t="s">
+        <v>121</v>
+      </c>
+      <c r="K32" s="38"/>
+      <c r="P32" s="38"/>
     </row>
     <row r="33" spans="1:16" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="55"/>
-      <c r="B33" s="56"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="56"/>
-      <c r="E33" s="56"/>
-      <c r="F33" s="56"/>
-      <c r="G33" s="56"/>
-      <c r="H33" s="56"/>
-      <c r="I33" s="56"/>
-      <c r="J33" s="57"/>
-      <c r="P33" s="39"/>
+      <c r="A33" s="52"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="53"/>
+      <c r="H33" s="53"/>
+      <c r="I33" s="53"/>
+      <c r="J33" s="100"/>
+      <c r="P33" s="38"/>
     </row>
     <row r="34" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="58" t="s">
+      <c r="A34" s="54" t="s">
         <v>54</v>
       </c>
       <c r="B34" s="37">
@@ -5903,336 +5192,336 @@
         <f t="shared" si="3"/>
         <v>7059.3107494243886</v>
       </c>
-      <c r="J34" s="38"/>
-      <c r="P34" s="39"/>
+      <c r="J34" s="98"/>
+      <c r="P34" s="38"/>
     </row>
     <row r="35" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="59" t="s">
+      <c r="A35" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="B35" s="60">
+      <c r="B35" s="56">
         <f>[2]Financeira_base!F40</f>
         <v>543.406745</v>
       </c>
-      <c r="C35" s="60">
+      <c r="C35" s="56">
         <f>[2]Financeira_base!H40</f>
         <v>846.25511443746711</v>
       </c>
-      <c r="D35" s="60">
+      <c r="D35" s="56">
         <f>[2]Financeira_base!J40</f>
         <v>954.15434199330389</v>
       </c>
-      <c r="E35" s="60">
+      <c r="E35" s="56">
         <f>[2]Financeira_base!L40</f>
         <v>711.59443188002342</v>
       </c>
-      <c r="F35" s="60">
+      <c r="F35" s="56">
         <f>[2]Financeira_base!N40</f>
         <v>543.406745</v>
       </c>
-      <c r="G35" s="60">
+      <c r="G35" s="56">
         <f>[2]Financeira_base!R40</f>
         <v>543.406745</v>
       </c>
-      <c r="H35" s="60">
+      <c r="H35" s="56">
         <f>[2]Financeira_base!T40</f>
         <v>543.406745</v>
       </c>
-      <c r="I35" s="60">
+      <c r="I35" s="56">
         <f t="shared" si="3"/>
         <v>-242.55991011328047</v>
       </c>
-      <c r="J35" s="61"/>
-      <c r="P35" s="39"/>
+      <c r="J35" s="101"/>
+      <c r="P35" s="38"/>
     </row>
     <row r="36" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="62" t="s">
+      <c r="A36" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="B36" s="60">
+      <c r="B36" s="56">
         <f>[2]Financeira_base!F41</f>
         <v>58770.098489999997</v>
       </c>
-      <c r="C36" s="60">
+      <c r="C36" s="56">
         <f>[2]Financeira_base!H41</f>
         <v>83933.060191069992</v>
       </c>
-      <c r="D36" s="60">
+      <c r="D36" s="56">
         <f>[2]Financeira_base!J41</f>
         <v>79401.875176069996</v>
       </c>
-      <c r="E36" s="60">
+      <c r="E36" s="56">
         <f>[2]Financeira_base!L41</f>
         <v>77755.936619070009</v>
       </c>
-      <c r="F36" s="60">
+      <c r="F36" s="56">
         <f>[2]Financeira_base!N41</f>
         <v>58770.098491999997</v>
       </c>
-      <c r="G36" s="60">
+      <c r="G36" s="56">
         <f>[2]Financeira_base!R41</f>
         <v>58770.098491999997</v>
       </c>
-      <c r="H36" s="60">
+      <c r="H36" s="56">
         <f>[2]Financeira_base!T41</f>
         <v>58770.098491999997</v>
       </c>
-      <c r="I36" s="60">
+      <c r="I36" s="56">
         <f t="shared" si="3"/>
         <v>-1645.9385569999868</v>
       </c>
-      <c r="J36" s="61"/>
-      <c r="P36" s="39"/>
+      <c r="J36" s="101"/>
+      <c r="P36" s="38"/>
     </row>
     <row r="37" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="62" t="s">
+      <c r="A37" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="B37" s="60">
+      <c r="B37" s="56">
         <f>[2]Financeira_base!F42</f>
         <v>15437.159690593318</v>
       </c>
-      <c r="C37" s="60">
+      <c r="C37" s="56">
         <f>[2]Financeira_base!H42</f>
         <v>16506.3418686</v>
       </c>
-      <c r="D37" s="60">
+      <c r="D37" s="56">
         <f>[2]Financeira_base!J42</f>
         <v>16573.607989800003</v>
       </c>
-      <c r="E37" s="60">
+      <c r="E37" s="56">
         <f>[2]Financeira_base!L42</f>
         <v>16811.710422</v>
       </c>
-      <c r="F37" s="60">
+      <c r="F37" s="56">
         <f>[2]Financeira_base!N42</f>
         <v>15437.159690593318</v>
       </c>
-      <c r="G37" s="60">
+      <c r="G37" s="56">
         <f>[2]Financeira_base!R42</f>
         <v>15437.159690593318</v>
       </c>
-      <c r="H37" s="60">
+      <c r="H37" s="56">
         <f>[2]Financeira_base!T42</f>
         <v>15437.159690593318</v>
       </c>
-      <c r="I37" s="60">
+      <c r="I37" s="56">
         <f t="shared" si="3"/>
         <v>238.10243219999757</v>
       </c>
-      <c r="J37" s="61"/>
-      <c r="P37" s="39"/>
+      <c r="J37" s="101"/>
+      <c r="P37" s="38"/>
     </row>
     <row r="38" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="47" t="s">
+      <c r="A38" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="B38" s="60">
+      <c r="B38" s="56">
         <f>[2]Financeira_base!F44</f>
         <v>300117.93928600004</v>
       </c>
-      <c r="C38" s="60">
+      <c r="C38" s="56">
         <f>[2]Financeira_base!H44</f>
         <v>309919.93929124321</v>
       </c>
-      <c r="D38" s="60">
+      <c r="D38" s="56">
         <f>[2]Financeira_base!J44</f>
         <v>327963.5822104587</v>
       </c>
-      <c r="E38" s="60">
+      <c r="E38" s="56">
         <f>[2]Financeira_base!L44</f>
         <v>337442.21032512462</v>
       </c>
-      <c r="F38" s="60">
+      <c r="F38" s="56">
         <f>[2]Financeira_base!N44</f>
         <v>300117.93929000001</v>
       </c>
-      <c r="G38" s="60">
+      <c r="G38" s="56">
         <f>[2]Financeira_base!R44</f>
         <v>300117.93929000001</v>
       </c>
-      <c r="H38" s="60">
+      <c r="H38" s="56">
         <f>[2]Financeira_base!T44</f>
         <v>300117.93929000001</v>
       </c>
-      <c r="I38" s="60">
+      <c r="I38" s="56">
         <f t="shared" si="3"/>
         <v>9478.6281146659167</v>
       </c>
-      <c r="J38" s="63"/>
-      <c r="P38" s="39"/>
+      <c r="J38" s="59"/>
+      <c r="P38" s="38"/>
     </row>
     <row r="39" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="62" t="s">
+      <c r="A39" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="B39" s="60">
+      <c r="B39" s="56">
         <f>[2]Financeira_base!F45</f>
         <v>8941.7155921202211</v>
       </c>
-      <c r="C39" s="60">
+      <c r="C39" s="56">
         <f>[2]Financeira_base!H45</f>
         <v>9783.3160227588123</v>
       </c>
-      <c r="D39" s="60">
+      <c r="D39" s="56">
         <f>[2]Financeira_base!J45</f>
         <v>8876.9397530793976</v>
       </c>
-      <c r="E39" s="60">
+      <c r="E39" s="56">
         <f>[2]Financeira_base!L45</f>
         <v>8096.9012815511032</v>
       </c>
-      <c r="F39" s="60">
+      <c r="F39" s="56">
         <f>[2]Financeira_base!N45</f>
         <v>8941.7155921202211</v>
       </c>
-      <c r="G39" s="60">
+      <c r="G39" s="56">
         <f>[2]Financeira_base!R45</f>
         <v>8941.7155921202211</v>
       </c>
-      <c r="H39" s="60">
+      <c r="H39" s="56">
         <f>[2]Financeira_base!T45</f>
         <v>8941.7155921202211</v>
       </c>
-      <c r="I39" s="60">
+      <c r="I39" s="56">
         <f t="shared" si="3"/>
         <v>-780.03847152829439</v>
       </c>
-      <c r="J39" s="64"/>
-      <c r="P39" s="39"/>
+      <c r="J39" s="60"/>
+      <c r="P39" s="38"/>
     </row>
     <row r="40" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="62" t="s">
+      <c r="A40" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="B40" s="60">
+      <c r="B40" s="56">
         <f>[2]Financeira_base!F46</f>
         <v>18911.663505</v>
       </c>
-      <c r="C40" s="60">
+      <c r="C40" s="56">
         <f>[2]Financeira_base!H46</f>
         <v>21726.194662000002</v>
       </c>
-      <c r="D40" s="60">
+      <c r="D40" s="56">
         <f>[2]Financeira_base!J46</f>
         <v>22903.959707999998</v>
       </c>
-      <c r="E40" s="60">
+      <c r="E40" s="56">
         <f>[2]Financeira_base!L46</f>
         <v>23524.894277000003</v>
       </c>
-      <c r="F40" s="60">
+      <c r="F40" s="56">
         <f>[2]Financeira_base!N46</f>
         <v>18911.663505</v>
       </c>
-      <c r="G40" s="60">
+      <c r="G40" s="56">
         <f>[2]Financeira_base!R46</f>
         <v>18911.663505</v>
       </c>
-      <c r="H40" s="60">
+      <c r="H40" s="56">
         <f>[2]Financeira_base!T46</f>
         <v>18911.663505</v>
       </c>
-      <c r="I40" s="60">
+      <c r="I40" s="56">
         <f t="shared" si="3"/>
         <v>620.93456900000456</v>
       </c>
-      <c r="J40" s="64"/>
-      <c r="P40" s="39"/>
+      <c r="J40" s="60"/>
+      <c r="P40" s="38"/>
     </row>
     <row r="41" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="62" t="s">
+      <c r="A41" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="B41" s="60">
+      <c r="B41" s="56">
         <f>[2]Financeira_base!F47</f>
         <v>-9969.9479128797793</v>
       </c>
-      <c r="C41" s="60">
+      <c r="C41" s="56">
         <f>[2]Financeira_base!H47</f>
         <v>-11942.878639241189</v>
       </c>
-      <c r="D41" s="60">
+      <c r="D41" s="56">
         <f>[2]Financeira_base!J47</f>
         <v>-14027.019954920601</v>
       </c>
-      <c r="E41" s="60">
+      <c r="E41" s="56">
         <f>[2]Financeira_base!L47</f>
         <v>-15427.9929954489</v>
       </c>
-      <c r="F41" s="60">
+      <c r="F41" s="56">
         <f>[2]Financeira_base!N47</f>
         <v>-9969.9479128797793</v>
       </c>
-      <c r="G41" s="60">
+      <c r="G41" s="56">
         <f>[2]Financeira_base!R47</f>
         <v>-9969.9479128797793</v>
       </c>
-      <c r="H41" s="60">
+      <c r="H41" s="56">
         <f>[2]Financeira_base!T47</f>
         <v>-9969.9479128797793</v>
       </c>
-      <c r="I41" s="60">
+      <c r="I41" s="56">
         <f t="shared" si="3"/>
         <v>-1400.973040528299</v>
       </c>
-      <c r="J41" s="63"/>
-      <c r="P41" s="39"/>
+      <c r="J41" s="59"/>
+      <c r="P41" s="38"/>
     </row>
     <row r="42" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="62" t="s">
+      <c r="A42" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="B42" s="60">
+      <c r="B42" s="56">
         <f>[2]Financeira_base!F48</f>
         <v>2591.0382479999994</v>
       </c>
-      <c r="C42" s="60">
+      <c r="C42" s="56">
         <f>[2]Financeira_base!H48</f>
         <v>10938.35268994</v>
       </c>
-      <c r="D42" s="60">
+      <c r="D42" s="56">
         <f>[2]Financeira_base!J48</f>
         <v>10940.847165939998</v>
       </c>
-      <c r="E42" s="60">
+      <c r="E42" s="56">
         <f>[2]Financeira_base!L48</f>
         <v>10951.964307139999</v>
       </c>
-      <c r="F42" s="60">
+      <c r="F42" s="56">
         <f>[2]Financeira_base!N48</f>
         <v>2591.0382489999997</v>
       </c>
-      <c r="G42" s="60">
+      <c r="G42" s="56">
         <f>[2]Financeira_base!R48</f>
         <v>2591.0382489999997</v>
       </c>
-      <c r="H42" s="60">
+      <c r="H42" s="56">
         <f>[2]Financeira_base!T48</f>
         <v>2591.0382489999997</v>
       </c>
-      <c r="I42" s="60">
+      <c r="I42" s="56">
         <f t="shared" si="3"/>
         <v>11.117141200000333</v>
       </c>
-      <c r="J42" s="61"/>
-      <c r="P42" s="39"/>
+      <c r="J42" s="101"/>
+      <c r="P42" s="38"/>
     </row>
     <row r="43" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="61"/>
-      <c r="B43" s="65"/>
-      <c r="C43" s="65"/>
-      <c r="D43" s="65"/>
-      <c r="E43" s="65"/>
-      <c r="F43" s="65"/>
-      <c r="G43" s="65"/>
-      <c r="H43" s="65"/>
-      <c r="I43" s="65">
+      <c r="A43" s="57"/>
+      <c r="B43" s="61"/>
+      <c r="C43" s="61"/>
+      <c r="D43" s="61"/>
+      <c r="E43" s="61"/>
+      <c r="F43" s="61"/>
+      <c r="G43" s="61"/>
+      <c r="H43" s="61"/>
+      <c r="I43" s="61">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J43" s="61"/>
-      <c r="P43" s="39"/>
+      <c r="J43" s="101"/>
+      <c r="P43" s="38"/>
     </row>
     <row r="44" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="36" t="s">
@@ -6270,20 +5559,20 @@
         <f t="shared" si="3"/>
         <v>51954.9147173909</v>
       </c>
-      <c r="J44" s="38"/>
-      <c r="P44" s="39"/>
+      <c r="J44" s="98"/>
+      <c r="P44" s="38"/>
     </row>
     <row r="45" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="66"/>
-      <c r="B45" s="66"/>
-      <c r="C45" s="66"/>
-      <c r="D45" s="66"/>
-      <c r="E45" s="66"/>
-      <c r="F45" s="66"/>
-      <c r="G45" s="66"/>
-      <c r="H45" s="66"/>
-      <c r="I45" s="67"/>
-      <c r="J45" s="61"/>
+      <c r="A45" s="62"/>
+      <c r="B45" s="62"/>
+      <c r="C45" s="62"/>
+      <c r="D45" s="62"/>
+      <c r="E45" s="62"/>
+      <c r="F45" s="62"/>
+      <c r="G45" s="62"/>
+      <c r="H45" s="62"/>
+      <c r="I45" s="63"/>
+      <c r="J45" s="101"/>
     </row>
     <row r="46" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="31" t="s">
@@ -6297,98 +5586,98 @@
     </row>
     <row r="49" spans="1:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="50" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="137" t="s">
+      <c r="A50" s="103" t="s">
         <v>66</v>
       </c>
-      <c r="B50" s="68">
+      <c r="B50" s="64">
         <f>B44-[2]Financeira_base!F49</f>
         <v>0</v>
       </c>
-      <c r="C50" s="68">
+      <c r="C50" s="64">
         <f>C44-[2]Financeira_base!H49</f>
         <v>0</v>
       </c>
-      <c r="D50" s="68">
+      <c r="D50" s="64">
         <f>D44-[2]Financeira_base!J49</f>
         <v>0</v>
       </c>
-      <c r="E50" s="68">
+      <c r="E50" s="64">
         <f>E44-[2]Financeira_base!L49</f>
         <v>0</v>
       </c>
-      <c r="F50" s="68">
+      <c r="F50" s="64">
         <f>F44-[2]Financeira_base!N49</f>
         <v>0</v>
       </c>
-      <c r="G50" s="68">
+      <c r="G50" s="64">
         <f>G44-[2]Financeira_base!R49</f>
         <v>0</v>
       </c>
-      <c r="H50" s="68">
+      <c r="H50" s="64">
         <f>H44-[2]Financeira_base!T49</f>
         <v>0</v>
       </c>
-      <c r="I50" s="69">
+      <c r="I50" s="65">
         <f>I44-[2]Financeira_base!V49</f>
         <v>-4.6566128730773926E-10</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="138"/>
-      <c r="B51" s="70"/>
-      <c r="C51" s="70"/>
-      <c r="D51" s="70"/>
-      <c r="E51" s="70"/>
-      <c r="F51" s="70"/>
-      <c r="G51" s="70"/>
-      <c r="H51" s="70"/>
-      <c r="I51" s="71"/>
+      <c r="A51" s="104"/>
+      <c r="B51" s="66"/>
+      <c r="C51" s="66"/>
+      <c r="D51" s="66"/>
+      <c r="E51" s="66"/>
+      <c r="F51" s="66"/>
+      <c r="G51" s="66"/>
+      <c r="H51" s="66"/>
+      <c r="I51" s="67"/>
     </row>
     <row r="53" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="72"/>
-      <c r="C53" s="72"/>
-      <c r="D53" s="72"/>
-      <c r="E53" s="72"/>
-      <c r="F53" s="72"/>
-      <c r="G53" s="72"/>
-      <c r="H53" s="72"/>
-      <c r="I53" s="72"/>
+      <c r="B53" s="68"/>
+      <c r="C53" s="68"/>
+      <c r="D53" s="68"/>
+      <c r="E53" s="68"/>
+      <c r="F53" s="68"/>
+      <c r="G53" s="68"/>
+      <c r="H53" s="68"/>
+      <c r="I53" s="68"/>
     </row>
     <row r="56" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="73"/>
+      <c r="A56" s="69"/>
     </row>
     <row r="57" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="73"/>
+      <c r="A57" s="69"/>
     </row>
     <row r="58" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="74"/>
+      <c r="A58" s="70"/>
     </row>
     <row r="59" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="75"/>
+      <c r="A59" s="71"/>
     </row>
     <row r="60" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="75"/>
+      <c r="A60" s="71"/>
     </row>
     <row r="61" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="75"/>
+      <c r="A61" s="71"/>
     </row>
     <row r="62" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="75"/>
+      <c r="A62" s="71"/>
     </row>
     <row r="63" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="75"/>
+      <c r="A63" s="71"/>
     </row>
     <row r="64" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="75"/>
+      <c r="A64" s="71"/>
     </row>
     <row r="65" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="75"/>
+      <c r="A65" s="71"/>
     </row>
     <row r="66" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="76"/>
+      <c r="A66" s="72"/>
     </row>
     <row r="67" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="74"/>
+      <c r="A67" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6409,2924 +5698,1272 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K92"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="N99" sqref="N99"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="0" style="31" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="63.42578125" style="31" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" style="31" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" style="31" hidden="1" customWidth="1"/>
-    <col min="5" max="6" width="16.7109375" style="31" customWidth="1"/>
-    <col min="7" max="9" width="16.7109375" style="31" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="31" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" style="31" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="31"/>
+    <col min="1" max="1" width="63.42578125" style="31" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" style="31" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" style="31" hidden="1" customWidth="1"/>
+    <col min="4" max="5" width="16.7109375" style="31" customWidth="1"/>
+    <col min="6" max="8" width="16.7109375" style="31" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="31" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" style="31" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="77" t="s">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="73" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-    </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="79"/>
-    </row>
-    <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="80"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="82" t="s">
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="75"/>
+    </row>
+    <row r="3" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="76"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="78" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="34" customFormat="1" ht="77.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="83" t="s">
+    <row r="4" spans="1:10" s="34" customFormat="1" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="102" t="s">
         <v>68</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>3</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="32" t="s">
+      <c r="J4" s="34" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="69" customFormat="1" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="79"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="80"/>
+    </row>
+    <row r="6" spans="1:10" s="69" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="79"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="80"/>
+    </row>
+    <row r="7" spans="1:10" s="69" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="81" t="s">
         <v>71</v>
       </c>
-      <c r="G4" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" s="32" t="s">
+      <c r="B7" s="105">
+        <v>777717.34199999995</v>
+      </c>
+      <c r="C7" s="105">
+        <v>778063.51642113004</v>
+      </c>
+      <c r="D7" s="105">
+        <v>788693.26409999991</v>
+      </c>
+      <c r="E7" s="105">
+        <v>789647.67182999989</v>
+      </c>
+      <c r="F7" s="105">
+        <v>777717.34199999995</v>
+      </c>
+      <c r="G7" s="105">
+        <v>777717.34199999995</v>
+      </c>
+      <c r="H7" s="105">
+        <v>777717.34199999995</v>
+      </c>
+      <c r="I7" s="105">
+        <v>954.40772999997716</v>
+      </c>
+      <c r="J7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="84" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="82" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" s="73" customFormat="1" ht="3.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="84"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="85"/>
-    </row>
-    <row r="6" spans="1:11" s="73" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="84"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="85"/>
-    </row>
-    <row r="7" spans="1:11" s="73" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="86" t="s">
+      <c r="B8" s="105">
+        <v>336102.49535081221</v>
+      </c>
+      <c r="C8" s="105">
+        <v>338550.74923881225</v>
+      </c>
+      <c r="D8" s="105">
+        <v>341339.90996580216</v>
+      </c>
+      <c r="E8" s="105">
+        <v>339586.2144448022</v>
+      </c>
+      <c r="F8" s="105">
+        <v>336102.49462981219</v>
+      </c>
+      <c r="G8" s="105">
+        <v>336102.49462981219</v>
+      </c>
+      <c r="H8" s="105">
+        <v>336102.49462981219</v>
+      </c>
+      <c r="I8" s="105">
+        <v>-1753.6955209999578</v>
+      </c>
+      <c r="J8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="69" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="81" t="s">
         <v>73</v>
       </c>
-      <c r="B7" s="87" t="s">
+      <c r="B9" s="105">
+        <v>65822.521438000011</v>
+      </c>
+      <c r="C9" s="105">
+        <v>64376.6510652824</v>
+      </c>
+      <c r="D9" s="105">
+        <v>65377.056970159996</v>
+      </c>
+      <c r="E9" s="105">
+        <v>65874.69817376</v>
+      </c>
+      <c r="F9" s="105">
+        <v>65822.521438000011</v>
+      </c>
+      <c r="G9" s="105">
+        <v>65822.521438000011</v>
+      </c>
+      <c r="H9" s="105">
+        <v>65822.521438000011</v>
+      </c>
+      <c r="I9" s="105">
+        <v>497.64120360000379</v>
+      </c>
+      <c r="J9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="84" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="81" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="48">
-        <f>[2]Financeira_base!F51</f>
-        <v>777717.34199999995</v>
-      </c>
-      <c r="D7" s="48">
-        <f>[2]Financeira_base!H51</f>
-        <v>778063.51642113004</v>
-      </c>
-      <c r="E7" s="48">
-        <f>[2]Financeira_base!J51</f>
-        <v>788693.26409999991</v>
-      </c>
-      <c r="F7" s="48">
-        <f>[2]Financeira_base!L51</f>
-        <v>789647.67182999989</v>
-      </c>
-      <c r="G7" s="48">
-        <f>[2]Financeira_base!N51</f>
-        <v>777717.34199999995</v>
-      </c>
-      <c r="H7" s="48">
-        <f>[2]Financeira_base!R51</f>
-        <v>777717.34199999995</v>
-      </c>
-      <c r="I7" s="48">
-        <f>[2]Financeira_base!T51</f>
-        <v>777717.34199999995</v>
-      </c>
-      <c r="J7" s="48">
-        <f>F7-E7</f>
-        <v>954.40772999997716</v>
-      </c>
-      <c r="K7" s="85"/>
-    </row>
-    <row r="8" spans="1:11" s="91" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="88" t="s">
+      <c r="B10" s="105">
+        <v>174.093797</v>
+      </c>
+      <c r="C10" s="105">
+        <v>174.093797</v>
+      </c>
+      <c r="D10" s="105">
+        <v>174.093797</v>
+      </c>
+      <c r="E10" s="105">
+        <v>174.093797</v>
+      </c>
+      <c r="F10" s="105">
+        <v>174.093797</v>
+      </c>
+      <c r="G10" s="105">
+        <v>174.093797</v>
+      </c>
+      <c r="H10" s="105">
+        <v>174.093797</v>
+      </c>
+      <c r="I10" s="105">
+        <v>0</v>
+      </c>
+      <c r="J10" s="83"/>
+    </row>
+    <row r="11" spans="1:10" s="84" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="81" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="89" t="s">
+      <c r="B11" s="105">
+        <v>0</v>
+      </c>
+      <c r="C11" s="105">
+        <v>0</v>
+      </c>
+      <c r="D11" s="105">
+        <v>0</v>
+      </c>
+      <c r="E11" s="105">
+        <v>10162</v>
+      </c>
+      <c r="F11" s="105">
+        <v>0</v>
+      </c>
+      <c r="G11" s="105">
+        <v>0</v>
+      </c>
+      <c r="H11" s="105">
+        <v>0</v>
+      </c>
+      <c r="I11" s="105">
+        <v>10162</v>
+      </c>
+      <c r="J11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="84" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="C8" s="48">
-        <f>[2]Financeira_base!F52</f>
-        <v>336102.49535081221</v>
-      </c>
-      <c r="D8" s="48">
-        <f>[2]Financeira_base!H52</f>
-        <v>338550.74923881225</v>
-      </c>
-      <c r="E8" s="48">
-        <f>[2]Financeira_base!J52</f>
-        <v>341339.90996580216</v>
-      </c>
-      <c r="F8" s="48">
-        <f>[2]Financeira_base!L52</f>
-        <v>339586.2144448022</v>
-      </c>
-      <c r="G8" s="48">
-        <f>[2]Financeira_base!N52</f>
-        <v>336102.49462981219</v>
-      </c>
-      <c r="H8" s="48">
-        <f>[2]Financeira_base!R52</f>
-        <v>336102.49462981219</v>
-      </c>
-      <c r="I8" s="48">
-        <f>[2]Financeira_base!T52</f>
-        <v>336102.49462981219</v>
-      </c>
-      <c r="J8" s="48">
-        <f t="shared" ref="J8:J44" si="0">F8-E8</f>
-        <v>-1753.6955209999578</v>
-      </c>
-      <c r="K8" s="90"/>
-    </row>
-    <row r="9" spans="1:11" s="91" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="88"/>
-      <c r="B9" s="88" t="s">
+      <c r="B12" s="105">
+        <v>0</v>
+      </c>
+      <c r="C12" s="105">
+        <v>0</v>
+      </c>
+      <c r="D12" s="105">
+        <v>0</v>
+      </c>
+      <c r="E12" s="105">
+        <v>0</v>
+      </c>
+      <c r="F12" s="105">
+        <v>0</v>
+      </c>
+      <c r="G12" s="105">
+        <v>0</v>
+      </c>
+      <c r="H12" s="105">
+        <v>0</v>
+      </c>
+      <c r="I12" s="105">
+        <v>0</v>
+      </c>
+      <c r="J12" s="83"/>
+    </row>
+    <row r="13" spans="1:10" s="84" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="C9" s="92">
-        <f t="shared" ref="C9:I9" si="1">SUM(C10:C20,C23:C27,C32:C42)</f>
-        <v>475674.16177065956</v>
-      </c>
-      <c r="D9" s="92">
-        <f t="shared" si="1"/>
-        <v>505116.13619556057</v>
-      </c>
-      <c r="E9" s="92">
-        <f t="shared" si="1"/>
-        <v>502701.27438280173</v>
-      </c>
-      <c r="F9" s="92">
-        <f t="shared" si="1"/>
-        <v>550246.3305322224</v>
-      </c>
-      <c r="G9" s="92">
-        <f t="shared" si="1"/>
-        <v>475674.09962665953</v>
-      </c>
-      <c r="H9" s="92">
-        <f t="shared" si="1"/>
-        <v>475674.09962665953</v>
-      </c>
-      <c r="I9" s="92">
-        <f t="shared" si="1"/>
-        <v>475674.09962665953</v>
-      </c>
-      <c r="J9" s="92">
-        <f t="shared" si="0"/>
-        <v>47545.056149420678</v>
-      </c>
-      <c r="K9" s="90"/>
-    </row>
-    <row r="10" spans="1:11" s="73" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="87" t="s">
+      <c r="B13" s="105">
+        <v>803.07874800000002</v>
+      </c>
+      <c r="C13" s="105">
+        <v>803.07874800000002</v>
+      </c>
+      <c r="D13" s="105">
+        <v>773.07874800000002</v>
+      </c>
+      <c r="E13" s="105">
+        <v>773.08159999999998</v>
+      </c>
+      <c r="F13" s="105">
+        <v>803.07874800000002</v>
+      </c>
+      <c r="G13" s="105">
+        <v>803.07874800000002</v>
+      </c>
+      <c r="H13" s="105">
+        <v>803.07874800000002</v>
+      </c>
+      <c r="I13" s="105">
+        <v>2.851999999961663E-3</v>
+      </c>
+      <c r="J13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="84" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="81" t="s">
         <v>78</v>
       </c>
-      <c r="B10" s="87" t="s">
+      <c r="B14" s="105">
+        <v>76168.434958999991</v>
+      </c>
+      <c r="C14" s="105">
+        <v>76025.734694252591</v>
+      </c>
+      <c r="D14" s="105">
+        <v>76957.988756999999</v>
+      </c>
+      <c r="E14" s="105">
+        <v>77961.388789966324</v>
+      </c>
+      <c r="F14" s="105">
+        <v>76168.477928999986</v>
+      </c>
+      <c r="G14" s="105">
+        <v>76168.477928999986</v>
+      </c>
+      <c r="H14" s="105">
+        <v>76168.477928999986</v>
+      </c>
+      <c r="I14" s="105">
+        <v>1003.4000329663249</v>
+      </c>
+      <c r="J14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="84" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="81" t="s">
         <v>79</v>
       </c>
-      <c r="C10" s="48">
-        <f>[2]Financeira_base!F54</f>
-        <v>65822.521438000011</v>
-      </c>
-      <c r="D10" s="48">
-        <f>[2]Financeira_base!H54</f>
-        <v>64376.6510652824</v>
-      </c>
-      <c r="E10" s="48">
-        <f>[2]Financeira_base!J54</f>
-        <v>65377.056970159996</v>
-      </c>
-      <c r="F10" s="48">
-        <f>[2]Financeira_base!L54</f>
-        <v>65874.69817376</v>
-      </c>
-      <c r="G10" s="48">
-        <f>[2]Financeira_base!N54</f>
-        <v>65822.521438000011</v>
-      </c>
-      <c r="H10" s="48">
-        <f>[2]Financeira_base!R54</f>
-        <v>65822.521438000011</v>
-      </c>
-      <c r="I10" s="48">
-        <f>[2]Financeira_base!T54</f>
-        <v>65822.521438000011</v>
-      </c>
-      <c r="J10" s="48">
-        <f t="shared" si="0"/>
-        <v>497.64120360000379</v>
-      </c>
-      <c r="K10" s="85"/>
-    </row>
-    <row r="11" spans="1:11" s="91" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="89" t="s">
+      <c r="B15" s="105">
+        <v>0</v>
+      </c>
+      <c r="C15" s="105">
+        <v>0</v>
+      </c>
+      <c r="D15" s="105">
+        <v>0</v>
+      </c>
+      <c r="E15" s="105">
+        <v>0</v>
+      </c>
+      <c r="F15" s="105">
+        <v>0</v>
+      </c>
+      <c r="G15" s="105">
+        <v>0</v>
+      </c>
+      <c r="H15" s="105">
+        <v>0</v>
+      </c>
+      <c r="I15" s="105">
+        <v>0</v>
+      </c>
+      <c r="J15" s="83"/>
+    </row>
+    <row r="16" spans="1:10" s="84" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="81" t="s">
         <v>80</v>
       </c>
-      <c r="B11" s="87" t="s">
+      <c r="B16" s="105">
+        <v>0</v>
+      </c>
+      <c r="C16" s="105">
+        <v>0</v>
+      </c>
+      <c r="D16" s="105">
+        <v>0</v>
+      </c>
+      <c r="E16" s="105">
+        <v>0</v>
+      </c>
+      <c r="F16" s="105">
+        <v>0</v>
+      </c>
+      <c r="G16" s="105">
+        <v>0</v>
+      </c>
+      <c r="H16" s="105">
+        <v>0</v>
+      </c>
+      <c r="I16" s="105">
+        <v>0</v>
+      </c>
+      <c r="J16" s="83"/>
+    </row>
+    <row r="17" spans="1:10" s="84" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="81" t="s">
         <v>81</v>
       </c>
-      <c r="C11" s="48">
-        <f>[2]Financeira_base!F55</f>
-        <v>174.093797</v>
-      </c>
-      <c r="D11" s="48">
-        <f>[2]Financeira_base!H55</f>
-        <v>174.093797</v>
-      </c>
-      <c r="E11" s="48">
-        <f>[2]Financeira_base!J55</f>
-        <v>174.093797</v>
-      </c>
-      <c r="F11" s="48">
-        <f>[2]Financeira_base!L55</f>
-        <v>174.093797</v>
-      </c>
-      <c r="G11" s="48">
-        <f>[2]Financeira_base!N55</f>
-        <v>174.093797</v>
-      </c>
-      <c r="H11" s="48">
-        <f>[2]Financeira_base!R55</f>
-        <v>174.093797</v>
-      </c>
-      <c r="I11" s="48">
-        <f>[2]Financeira_base!T55</f>
-        <v>174.093797</v>
-      </c>
-      <c r="J11" s="48">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K11" s="90"/>
-    </row>
-    <row r="12" spans="1:11" s="91" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="89" t="s">
+      <c r="B17" s="105">
+        <v>0</v>
+      </c>
+      <c r="C17" s="105">
+        <v>23837.710497339998</v>
+      </c>
+      <c r="D17" s="105">
+        <v>23818.043290580001</v>
+      </c>
+      <c r="E17" s="105">
+        <v>58705.971586129999</v>
+      </c>
+      <c r="F17" s="105">
+        <v>0</v>
+      </c>
+      <c r="G17" s="105">
+        <v>0</v>
+      </c>
+      <c r="H17" s="105">
+        <v>0</v>
+      </c>
+      <c r="I17" s="105">
+        <v>34887.928295549995</v>
+      </c>
+      <c r="J17" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="84" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="81" t="s">
         <v>82</v>
       </c>
-      <c r="B12" s="87" t="s">
+      <c r="B18" s="105">
+        <v>3192.1071339999999</v>
+      </c>
+      <c r="C18" s="105">
+        <v>3247.600557376878</v>
+      </c>
+      <c r="D18" s="105">
+        <v>3096.0899999999997</v>
+      </c>
+      <c r="E18" s="105">
+        <v>3096.0899999999997</v>
+      </c>
+      <c r="F18" s="105">
+        <v>3192.1071339999999</v>
+      </c>
+      <c r="G18" s="105">
+        <v>3192.1071339999999</v>
+      </c>
+      <c r="H18" s="105">
+        <v>3192.1071339999999</v>
+      </c>
+      <c r="I18" s="105">
+        <v>0</v>
+      </c>
+      <c r="J18" s="83"/>
+    </row>
+    <row r="19" spans="1:10" s="84" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="81" t="s">
         <v>83</v>
       </c>
-      <c r="C12" s="48">
-        <f>[2]Financeira_base!AD56</f>
-        <v>0</v>
-      </c>
-      <c r="D12" s="48">
-        <f>[2]Financeira_base!H56</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="48">
-        <f>[2]Financeira_base!J56</f>
-        <v>0</v>
-      </c>
-      <c r="F12" s="48">
-        <f>[2]Financeira_base!L56</f>
-        <v>10162</v>
-      </c>
-      <c r="G12" s="48">
-        <f>[2]Financeira_base!N56</f>
-        <v>0</v>
-      </c>
-      <c r="H12" s="48">
-        <f>[2]Financeira_base!R56</f>
-        <v>0</v>
-      </c>
-      <c r="I12" s="48">
-        <f>[2]Financeira_base!T56</f>
-        <v>0</v>
-      </c>
-      <c r="J12" s="48">
-        <f t="shared" si="0"/>
-        <v>10162</v>
-      </c>
-      <c r="K12" s="90"/>
-    </row>
-    <row r="13" spans="1:11" s="91" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="89" t="s">
+      <c r="B19" s="105">
+        <v>0</v>
+      </c>
+      <c r="C19" s="105">
+        <v>0</v>
+      </c>
+      <c r="D19" s="105">
+        <v>0</v>
+      </c>
+      <c r="E19" s="105">
+        <v>0</v>
+      </c>
+      <c r="F19" s="105">
+        <v>0</v>
+      </c>
+      <c r="G19" s="105">
+        <v>0</v>
+      </c>
+      <c r="H19" s="105">
+        <v>0</v>
+      </c>
+      <c r="I19" s="105">
+        <v>0</v>
+      </c>
+      <c r="J19" s="83"/>
+    </row>
+    <row r="20" spans="1:10" s="84" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="85" t="s">
         <v>84</v>
       </c>
-      <c r="B13" s="87" t="s">
+      <c r="B20" s="105">
+        <v>0</v>
+      </c>
+      <c r="C20" s="105">
+        <v>0</v>
+      </c>
+      <c r="D20" s="105">
+        <v>0</v>
+      </c>
+      <c r="E20" s="105">
+        <v>0</v>
+      </c>
+      <c r="F20" s="105">
+        <v>0</v>
+      </c>
+      <c r="G20" s="105">
+        <v>0</v>
+      </c>
+      <c r="H20" s="105">
+        <v>0</v>
+      </c>
+      <c r="I20" s="105">
+        <v>0</v>
+      </c>
+      <c r="J20" s="83"/>
+    </row>
+    <row r="21" spans="1:10" s="84" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="85" t="s">
         <v>85</v>
       </c>
-      <c r="C13" s="48">
-        <f>[2]Financeira_base!AD57</f>
-        <v>0</v>
-      </c>
-      <c r="D13" s="48">
-        <f>[2]Financeira_base!AF57</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="48">
-        <f>[2]Financeira_base!AH57</f>
-        <v>0</v>
-      </c>
-      <c r="F13" s="48">
-        <f>[2]Financeira_base!AI57</f>
-        <v>0</v>
-      </c>
-      <c r="G13" s="48">
-        <f>[2]Financeira_base!AK57</f>
-        <v>0</v>
-      </c>
-      <c r="H13" s="48">
-        <f>[2]Financeira_base!AM57</f>
-        <v>0</v>
-      </c>
-      <c r="I13" s="48">
-        <f>[2]Financeira_base!AO57</f>
-        <v>0</v>
-      </c>
-      <c r="J13" s="48">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K13" s="90"/>
-    </row>
-    <row r="14" spans="1:11" s="91" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="89" t="s">
+      <c r="B21" s="105">
+        <v>0</v>
+      </c>
+      <c r="C21" s="105">
+        <v>0</v>
+      </c>
+      <c r="D21" s="105">
+        <v>0</v>
+      </c>
+      <c r="E21" s="105">
+        <v>0</v>
+      </c>
+      <c r="F21" s="105">
+        <v>0</v>
+      </c>
+      <c r="G21" s="105">
+        <v>0</v>
+      </c>
+      <c r="H21" s="105">
+        <v>0</v>
+      </c>
+      <c r="I21" s="105">
+        <v>0</v>
+      </c>
+      <c r="J21" s="83"/>
+    </row>
+    <row r="22" spans="1:10" s="84" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="81" t="s">
         <v>86</v>
       </c>
-      <c r="B14" s="87" t="s">
+      <c r="B22" s="105">
+        <v>1088</v>
+      </c>
+      <c r="C22" s="105">
+        <v>1088</v>
+      </c>
+      <c r="D22" s="105">
+        <v>1088</v>
+      </c>
+      <c r="E22" s="105">
+        <v>1088</v>
+      </c>
+      <c r="F22" s="105">
+        <v>1088</v>
+      </c>
+      <c r="G22" s="105">
+        <v>1088</v>
+      </c>
+      <c r="H22" s="105">
+        <v>1088</v>
+      </c>
+      <c r="I22" s="105">
+        <v>0</v>
+      </c>
+      <c r="J22" s="83"/>
+    </row>
+    <row r="23" spans="1:10" s="84" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="81" t="s">
         <v>87</v>
       </c>
-      <c r="C14" s="48">
-        <f>[2]Financeira_base!F58</f>
-        <v>803.07874800000002</v>
-      </c>
-      <c r="D14" s="48">
-        <f>[2]Financeira_base!H58</f>
-        <v>803.07874800000002</v>
-      </c>
-      <c r="E14" s="48">
-        <f>[2]Financeira_base!J58</f>
-        <v>773.07874800000002</v>
-      </c>
-      <c r="F14" s="48">
-        <f>[2]Financeira_base!L58</f>
-        <v>773.08159999999998</v>
-      </c>
-      <c r="G14" s="48">
-        <f>[2]Financeira_base!N58</f>
-        <v>803.07874800000002</v>
-      </c>
-      <c r="H14" s="48">
-        <f>[2]Financeira_base!R58</f>
-        <v>803.07874800000002</v>
-      </c>
-      <c r="I14" s="48">
-        <f>[2]Financeira_base!T58</f>
-        <v>803.07874800000002</v>
-      </c>
-      <c r="J14" s="48">
-        <f t="shared" si="0"/>
-        <v>2.851999999961663E-3</v>
-      </c>
-      <c r="K14" s="90"/>
-    </row>
-    <row r="15" spans="1:11" s="91" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="89" t="s">
+      <c r="B23" s="105">
+        <v>30082.944155000001</v>
+      </c>
+      <c r="C23" s="105">
+        <v>32526.890330869999</v>
+      </c>
+      <c r="D23" s="105">
+        <v>33704.71967726</v>
+      </c>
+      <c r="E23" s="105">
+        <v>33389.21427787</v>
+      </c>
+      <c r="F23" s="105">
+        <v>30082.944155000001</v>
+      </c>
+      <c r="G23" s="105">
+        <v>30082.944155000001</v>
+      </c>
+      <c r="H23" s="105">
+        <v>30082.944155000001</v>
+      </c>
+      <c r="I23" s="105">
+        <v>-315.50539939000009</v>
+      </c>
+      <c r="J23" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="84" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="B15" s="87" t="s">
+      <c r="B24" s="105">
+        <v>2271.5726099999993</v>
+      </c>
+      <c r="C24" s="105">
+        <v>2277.490597</v>
+      </c>
+      <c r="D24" s="105">
+        <v>2308.490597</v>
+      </c>
+      <c r="E24" s="105">
+        <v>2308.3375529999994</v>
+      </c>
+      <c r="F24" s="105">
+        <v>2271.5726099999993</v>
+      </c>
+      <c r="G24" s="105">
+        <v>2271.5726099999993</v>
+      </c>
+      <c r="H24" s="105">
+        <v>2271.5726099999993</v>
+      </c>
+      <c r="I24" s="105">
+        <v>-0.15304400000059104</v>
+      </c>
+      <c r="J24" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="84" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="C15" s="48">
-        <f>[2]Financeira_base!F59</f>
-        <v>76168.434958999991</v>
-      </c>
-      <c r="D15" s="48">
-        <f>[2]Financeira_base!H59</f>
-        <v>76025.734694252591</v>
-      </c>
-      <c r="E15" s="48">
-        <f>[2]Financeira_base!J59</f>
-        <v>76957.988756999999</v>
-      </c>
-      <c r="F15" s="48">
-        <f>[2]Financeira_base!L59</f>
-        <v>77961.388789966324</v>
-      </c>
-      <c r="G15" s="48">
-        <f>[2]Financeira_base!N59</f>
-        <v>76168.477928999986</v>
-      </c>
-      <c r="H15" s="48">
-        <f>[2]Financeira_base!R59</f>
-        <v>76168.477928999986</v>
-      </c>
-      <c r="I15" s="48">
-        <f>[2]Financeira_base!T59</f>
-        <v>76168.477928999986</v>
-      </c>
-      <c r="J15" s="48">
-        <f t="shared" si="0"/>
-        <v>1003.4000329663249</v>
-      </c>
-      <c r="K15" s="90"/>
-    </row>
-    <row r="16" spans="1:11" s="91" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="89" t="s">
+      <c r="B25" s="105">
+        <v>0</v>
+      </c>
+      <c r="C25" s="105">
+        <v>0</v>
+      </c>
+      <c r="D25" s="105">
+        <v>0</v>
+      </c>
+      <c r="E25" s="105">
+        <v>0</v>
+      </c>
+      <c r="F25" s="105">
+        <v>0</v>
+      </c>
+      <c r="G25" s="105">
+        <v>0</v>
+      </c>
+      <c r="H25" s="105">
+        <v>0</v>
+      </c>
+      <c r="I25" s="105">
+        <v>0</v>
+      </c>
+      <c r="J25" s="83"/>
+    </row>
+    <row r="26" spans="1:10" s="84" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="81" t="s">
         <v>90</v>
       </c>
-      <c r="B16" s="87" t="s">
+      <c r="B26" s="105">
+        <v>17993.648703999999</v>
+      </c>
+      <c r="C26" s="105">
+        <v>18225.377805999997</v>
+      </c>
+      <c r="D26" s="105">
+        <v>18225.377805999997</v>
+      </c>
+      <c r="E26" s="105">
+        <v>17989.600804999998</v>
+      </c>
+      <c r="F26" s="105">
+        <v>17993.648703999999</v>
+      </c>
+      <c r="G26" s="105">
+        <v>17993.648703999999</v>
+      </c>
+      <c r="H26" s="105">
+        <v>17993.648703999999</v>
+      </c>
+      <c r="I26" s="105">
+        <v>-235.77700099999856</v>
+      </c>
+      <c r="J26" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="84" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="86" t="s">
         <v>91</v>
       </c>
-      <c r="C16" s="48">
-        <f>[2]Financeira_base!AD60</f>
-        <v>0</v>
-      </c>
-      <c r="D16" s="48">
-        <f>[2]Financeira_base!AF60</f>
-        <v>0</v>
-      </c>
-      <c r="E16" s="48">
-        <f>[2]Financeira_base!AH60</f>
-        <v>0</v>
-      </c>
-      <c r="F16" s="48">
-        <f>[2]Financeira_base!AI60</f>
-        <v>0</v>
-      </c>
-      <c r="G16" s="48">
-        <f>[2]Financeira_base!AK60</f>
-        <v>0</v>
-      </c>
-      <c r="H16" s="48">
-        <f>[2]Financeira_base!AM60</f>
-        <v>0</v>
-      </c>
-      <c r="I16" s="48">
-        <f>[2]Financeira_base!AO60</f>
-        <v>0</v>
-      </c>
-      <c r="J16" s="48">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K16" s="90"/>
-    </row>
-    <row r="17" spans="1:11" s="91" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="89" t="s">
+      <c r="B27" s="105">
+        <v>0</v>
+      </c>
+      <c r="C27" s="105">
+        <v>0</v>
+      </c>
+      <c r="D27" s="105">
+        <v>0</v>
+      </c>
+      <c r="E27" s="105">
+        <v>0</v>
+      </c>
+      <c r="F27" s="105">
+        <v>0</v>
+      </c>
+      <c r="G27" s="105">
+        <v>0</v>
+      </c>
+      <c r="H27" s="105">
+        <v>0</v>
+      </c>
+      <c r="I27" s="105">
+        <v>0</v>
+      </c>
+      <c r="J27" s="83"/>
+    </row>
+    <row r="28" spans="1:10" s="84" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="87" t="s">
         <v>92</v>
       </c>
-      <c r="B17" s="87" t="s">
+      <c r="B28" s="105">
+        <v>0</v>
+      </c>
+      <c r="C28" s="105">
+        <v>0</v>
+      </c>
+      <c r="D28" s="105">
+        <v>0</v>
+      </c>
+      <c r="E28" s="105">
+        <v>0</v>
+      </c>
+      <c r="F28" s="105">
+        <v>0</v>
+      </c>
+      <c r="G28" s="105">
+        <v>0</v>
+      </c>
+      <c r="H28" s="105">
+        <v>0</v>
+      </c>
+      <c r="I28" s="105">
+        <v>0</v>
+      </c>
+      <c r="J28" s="83"/>
+    </row>
+    <row r="29" spans="1:10" s="84" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="87" t="s">
+        <v>85</v>
+      </c>
+      <c r="B29" s="105">
+        <v>0</v>
+      </c>
+      <c r="C29" s="105">
+        <v>0</v>
+      </c>
+      <c r="D29" s="105">
+        <v>0</v>
+      </c>
+      <c r="E29" s="105">
+        <v>0</v>
+      </c>
+      <c r="F29" s="105">
+        <v>0</v>
+      </c>
+      <c r="G29" s="105">
+        <v>0</v>
+      </c>
+      <c r="H29" s="105">
+        <v>0</v>
+      </c>
+      <c r="I29" s="105">
+        <v>0</v>
+      </c>
+      <c r="J29" s="83"/>
+    </row>
+    <row r="30" spans="1:10" s="84" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="86" t="s">
         <v>93</v>
       </c>
-      <c r="C17" s="48">
-        <f>[2]Financeira_base!F61</f>
-        <v>0</v>
-      </c>
-      <c r="D17" s="48">
-        <f>[2]Financeira_base!H61</f>
-        <v>0</v>
-      </c>
-      <c r="E17" s="48">
-        <f>[2]Financeira_base!J61</f>
-        <v>0</v>
-      </c>
-      <c r="F17" s="48">
-        <f>[2]Financeira_base!L61</f>
-        <v>0</v>
-      </c>
-      <c r="G17" s="48">
-        <f>[2]Financeira_base!N61</f>
-        <v>0</v>
-      </c>
-      <c r="H17" s="48">
-        <f>[2]Financeira_base!R61</f>
-        <v>0</v>
-      </c>
-      <c r="I17" s="48">
-        <f>[2]Financeira_base!T61</f>
-        <v>0</v>
-      </c>
-      <c r="J17" s="48">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K17" s="90"/>
-    </row>
-    <row r="18" spans="1:11" s="91" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="89" t="s">
+      <c r="B30" s="105">
+        <v>0</v>
+      </c>
+      <c r="C30" s="105">
+        <v>0</v>
+      </c>
+      <c r="D30" s="105">
+        <v>0</v>
+      </c>
+      <c r="E30" s="105">
+        <v>0</v>
+      </c>
+      <c r="F30" s="105">
+        <v>0</v>
+      </c>
+      <c r="G30" s="105">
+        <v>0</v>
+      </c>
+      <c r="H30" s="105">
+        <v>0</v>
+      </c>
+      <c r="I30" s="105">
+        <v>0</v>
+      </c>
+      <c r="J30" s="83"/>
+    </row>
+    <row r="31" spans="1:10" s="84" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="81" t="s">
         <v>94</v>
       </c>
-      <c r="B18" s="87" t="s">
+      <c r="B31" s="105">
+        <v>4000</v>
+      </c>
+      <c r="C31" s="105">
+        <v>4000</v>
+      </c>
+      <c r="D31" s="105">
+        <v>4000</v>
+      </c>
+      <c r="E31" s="105">
+        <v>4000</v>
+      </c>
+      <c r="F31" s="105">
+        <v>4000</v>
+      </c>
+      <c r="G31" s="105">
+        <v>4000</v>
+      </c>
+      <c r="H31" s="105">
+        <v>4000</v>
+      </c>
+      <c r="I31" s="105">
+        <v>0</v>
+      </c>
+      <c r="J31" s="83"/>
+    </row>
+    <row r="32" spans="1:10" s="84" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="81" t="s">
         <v>95</v>
       </c>
-      <c r="C18" s="48">
-        <f>[2]Financeira_base!F62</f>
-        <v>0</v>
-      </c>
-      <c r="D18" s="48">
-        <f>[2]Financeira_base!H62</f>
-        <v>23837.710497339998</v>
-      </c>
-      <c r="E18" s="48">
-        <f>[2]Financeira_base!J62</f>
-        <v>23818.043290580001</v>
-      </c>
-      <c r="F18" s="48">
-        <f>[2]Financeira_base!L62</f>
-        <v>58705.971586129999</v>
-      </c>
-      <c r="G18" s="48">
-        <f>[2]Financeira_base!N62</f>
-        <v>0</v>
-      </c>
-      <c r="H18" s="48">
-        <f>[2]Financeira_base!R62</f>
-        <v>0</v>
-      </c>
-      <c r="I18" s="48">
-        <f>[2]Financeira_base!T62</f>
-        <v>0</v>
-      </c>
-      <c r="J18" s="48">
-        <f t="shared" si="0"/>
-        <v>34887.928295549995</v>
-      </c>
-      <c r="K18" s="90"/>
-    </row>
-    <row r="19" spans="1:11" s="91" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="89" t="s">
+      <c r="B32" s="105">
+        <v>2401.8593040000001</v>
+      </c>
+      <c r="C32" s="105">
+        <v>0</v>
+      </c>
+      <c r="D32" s="105">
+        <v>0</v>
+      </c>
+      <c r="E32" s="105">
+        <v>0</v>
+      </c>
+      <c r="F32" s="105">
+        <v>2401.8593040000001</v>
+      </c>
+      <c r="G32" s="105">
+        <v>2401.8593040000001</v>
+      </c>
+      <c r="H32" s="105">
+        <v>2401.8593040000001</v>
+      </c>
+      <c r="I32" s="105">
+        <v>0</v>
+      </c>
+      <c r="J32" s="83"/>
+    </row>
+    <row r="33" spans="1:10" s="84" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="81" t="s">
         <v>96</v>
       </c>
-      <c r="B19" s="87" t="s">
+      <c r="B33" s="105">
+        <v>26979.334211999998</v>
+      </c>
+      <c r="C33" s="105">
+        <v>29381.193515999999</v>
+      </c>
+      <c r="D33" s="105">
+        <v>19454.928241000001</v>
+      </c>
+      <c r="E33" s="105">
+        <v>19182.582804999998</v>
+      </c>
+      <c r="F33" s="105">
+        <v>26979.334211999998</v>
+      </c>
+      <c r="G33" s="105">
+        <v>26979.334211999998</v>
+      </c>
+      <c r="H33" s="105">
+        <v>26979.334211999998</v>
+      </c>
+      <c r="I33" s="105">
+        <v>-272.34543600000325</v>
+      </c>
+      <c r="J33" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" s="84" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="81" t="s">
         <v>97</v>
       </c>
-      <c r="C19" s="48">
-        <f>[2]Financeira_base!F63</f>
-        <v>3192.1071339999999</v>
-      </c>
-      <c r="D19" s="48">
-        <f>[2]Financeira_base!H63</f>
-        <v>3247.600557376878</v>
-      </c>
-      <c r="E19" s="48">
-        <f>[2]Financeira_base!J63</f>
-        <v>3096.0899999999997</v>
-      </c>
-      <c r="F19" s="48">
-        <f>[2]Financeira_base!L63</f>
-        <v>3096.0899999999997</v>
-      </c>
-      <c r="G19" s="48">
-        <f>[2]Financeira_base!N63</f>
-        <v>3192.1071339999999</v>
-      </c>
-      <c r="H19" s="48">
-        <f>[2]Financeira_base!R63</f>
-        <v>3192.1071339999999</v>
-      </c>
-      <c r="I19" s="48">
-        <f>[2]Financeira_base!T63</f>
-        <v>3192.1071339999999</v>
-      </c>
-      <c r="J19" s="48">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K19" s="90"/>
-    </row>
-    <row r="20" spans="1:11" s="91" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="89" t="s">
+      <c r="B34" s="105">
+        <v>13377.631358659557</v>
+      </c>
+      <c r="C34" s="105">
+        <v>18471.966013661509</v>
+      </c>
+      <c r="D34" s="105">
+        <v>23035.501975169766</v>
+      </c>
+      <c r="E34" s="105">
+        <v>22278.757706546177</v>
+      </c>
+      <c r="F34" s="105">
+        <v>13377.631358659557</v>
+      </c>
+      <c r="G34" s="105">
+        <v>13377.631358659557</v>
+      </c>
+      <c r="H34" s="105">
+        <v>13377.631358659557</v>
+      </c>
+      <c r="I34" s="105">
+        <v>-756.74426862358814</v>
+      </c>
+      <c r="J34" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" s="84" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="81" t="s">
         <v>98</v>
       </c>
-      <c r="B20" s="87" t="s">
+      <c r="B35" s="105">
+        <v>0</v>
+      </c>
+      <c r="C35" s="105">
+        <v>0</v>
+      </c>
+      <c r="D35" s="105">
+        <v>0</v>
+      </c>
+      <c r="E35" s="105">
+        <v>0</v>
+      </c>
+      <c r="F35" s="105">
+        <v>0</v>
+      </c>
+      <c r="G35" s="105">
+        <v>0</v>
+      </c>
+      <c r="H35" s="105">
+        <v>0</v>
+      </c>
+      <c r="I35" s="105">
+        <v>0</v>
+      </c>
+      <c r="J35" s="83"/>
+    </row>
+    <row r="36" spans="1:10" s="84" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="81" t="s">
         <v>99</v>
       </c>
-      <c r="C20" s="48">
-        <f>[2]Financeira_base!AD64</f>
-        <v>0</v>
-      </c>
-      <c r="D20" s="48">
-        <f>[2]Financeira_base!AF64</f>
-        <v>0</v>
-      </c>
-      <c r="E20" s="48">
-        <f>[2]Financeira_base!AH64</f>
-        <v>0</v>
-      </c>
-      <c r="F20" s="48">
-        <f>[2]Financeira_base!AI64</f>
-        <v>0</v>
-      </c>
-      <c r="G20" s="48">
-        <f>[2]Financeira_base!AK64</f>
-        <v>0</v>
-      </c>
-      <c r="H20" s="48">
-        <f>[2]Financeira_base!AM64</f>
-        <v>0</v>
-      </c>
-      <c r="I20" s="48">
-        <f>[2]Financeira_base!AO64</f>
-        <v>0</v>
-      </c>
-      <c r="J20" s="48">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K20" s="90"/>
-    </row>
-    <row r="21" spans="1:11" s="91" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="93" t="s">
+      <c r="B36" s="105">
+        <v>0</v>
+      </c>
+      <c r="C36" s="105">
+        <v>0</v>
+      </c>
+      <c r="D36" s="105">
+        <v>0</v>
+      </c>
+      <c r="E36" s="105">
+        <v>0</v>
+      </c>
+      <c r="F36" s="105">
+        <v>0</v>
+      </c>
+      <c r="G36" s="105">
+        <v>0</v>
+      </c>
+      <c r="H36" s="105">
+        <v>0</v>
+      </c>
+      <c r="I36" s="105">
+        <v>0</v>
+      </c>
+      <c r="J36" s="83"/>
+    </row>
+    <row r="37" spans="1:10" s="69" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="81" t="s">
         <v>100</v>
       </c>
-      <c r="B21" s="94" t="s">
+      <c r="B37" s="105">
+        <v>169.89536200000001</v>
+      </c>
+      <c r="C37" s="105">
+        <v>121.67674100000001</v>
+      </c>
+      <c r="D37" s="105">
+        <v>131.979512</v>
+      </c>
+      <c r="E37" s="105">
+        <v>137.919265</v>
+      </c>
+      <c r="F37" s="105">
+        <v>169.89536200000001</v>
+      </c>
+      <c r="G37" s="105">
+        <v>169.89536200000001</v>
+      </c>
+      <c r="H37" s="105">
+        <v>169.89536200000001</v>
+      </c>
+      <c r="I37" s="105">
+        <v>5.9397529999999961</v>
+      </c>
+      <c r="J37" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" s="69" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="C21" s="48">
-        <f>[2]Financeira_base!AD65</f>
-        <v>0</v>
-      </c>
-      <c r="D21" s="48">
-        <f>[2]Financeira_base!AF65</f>
-        <v>0</v>
-      </c>
-      <c r="E21" s="48">
-        <f>[2]Financeira_base!AH65</f>
-        <v>0</v>
-      </c>
-      <c r="F21" s="48">
-        <f>[2]Financeira_base!AI65</f>
-        <v>0</v>
-      </c>
-      <c r="G21" s="48">
-        <f>[2]Financeira_base!AK65</f>
-        <v>0</v>
-      </c>
-      <c r="H21" s="48">
-        <f>[2]Financeira_base!AM65</f>
-        <v>0</v>
-      </c>
-      <c r="I21" s="48">
-        <f>[2]Financeira_base!AO65</f>
-        <v>0</v>
-      </c>
-      <c r="J21" s="48">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K21" s="90"/>
-    </row>
-    <row r="22" spans="1:11" s="91" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="93" t="s">
+      <c r="B38" s="105">
+        <v>1380.273768</v>
+      </c>
+      <c r="C38" s="105">
+        <v>1487.955483</v>
+      </c>
+      <c r="D38" s="105">
+        <v>1482.976435</v>
+      </c>
+      <c r="E38" s="105">
+        <v>1483.409269</v>
+      </c>
+      <c r="F38" s="105">
+        <v>1380.273768</v>
+      </c>
+      <c r="G38" s="105">
+        <v>1380.273768</v>
+      </c>
+      <c r="H38" s="105">
+        <v>1380.273768</v>
+      </c>
+      <c r="I38" s="105">
+        <v>0.43283399999995709</v>
+      </c>
+      <c r="J38" s="80"/>
+    </row>
+    <row r="39" spans="1:10" s="69" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="81" t="s">
         <v>102</v>
       </c>
-      <c r="B22" s="94" t="s">
+      <c r="B39" s="105">
+        <v>1643.3812350000001</v>
+      </c>
+      <c r="C39" s="105">
+        <v>968.60924077713685</v>
+      </c>
+      <c r="D39" s="105">
+        <v>905.04364763196531</v>
+      </c>
+      <c r="E39" s="105">
+        <v>1102.7373349499801</v>
+      </c>
+      <c r="F39" s="105">
+        <v>1643.3812350000001</v>
+      </c>
+      <c r="G39" s="105">
+        <v>1643.3812350000001</v>
+      </c>
+      <c r="H39" s="105">
+        <v>1643.3812350000001</v>
+      </c>
+      <c r="I39" s="105">
+        <v>197.69368731801478</v>
+      </c>
+      <c r="J39" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" s="69" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="81" t="s">
         <v>103</v>
       </c>
-      <c r="C22" s="48">
-        <f>[2]Financeira_base!AD66</f>
-        <v>0</v>
-      </c>
-      <c r="D22" s="48">
-        <f>[2]Financeira_base!AF66</f>
-        <v>0</v>
-      </c>
-      <c r="E22" s="48">
-        <f>[2]Financeira_base!AH66</f>
-        <v>0</v>
-      </c>
-      <c r="F22" s="48">
-        <f>[2]Financeira_base!AI66</f>
-        <v>0</v>
-      </c>
-      <c r="G22" s="48">
-        <f>[2]Financeira_base!AK66</f>
-        <v>0</v>
-      </c>
-      <c r="H22" s="48">
-        <f>[2]Financeira_base!AM66</f>
-        <v>0</v>
-      </c>
-      <c r="I22" s="48">
-        <f>[2]Financeira_base!AO66</f>
-        <v>0</v>
-      </c>
-      <c r="J22" s="48">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K22" s="90"/>
-    </row>
-    <row r="23" spans="1:11" s="91" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="89" t="s">
+      <c r="B40" s="105">
+        <v>4961.5197770000004</v>
+      </c>
+      <c r="C40" s="105">
+        <v>4961.5197770000004</v>
+      </c>
+      <c r="D40" s="105">
+        <v>4961.5197770000004</v>
+      </c>
+      <c r="E40" s="105">
+        <v>4961.5197770000004</v>
+      </c>
+      <c r="F40" s="105">
+        <v>4961.5197770000004</v>
+      </c>
+      <c r="G40" s="105">
+        <v>4961.5197770000004</v>
+      </c>
+      <c r="H40" s="105">
+        <v>4961.5197770000004</v>
+      </c>
+      <c r="I40" s="105">
+        <v>0</v>
+      </c>
+      <c r="J40" s="80"/>
+    </row>
+    <row r="41" spans="1:10" s="69" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="81" t="s">
         <v>104</v>
       </c>
-      <c r="B23" s="87" t="s">
+      <c r="B41" s="105">
+        <v>223163.86520899998</v>
+      </c>
+      <c r="C41" s="105">
+        <v>223140.58733099999</v>
+      </c>
+      <c r="D41" s="105">
+        <v>223206.385152</v>
+      </c>
+      <c r="E41" s="105">
+        <v>225576.927792</v>
+      </c>
+      <c r="F41" s="105">
+        <v>223163.76009499998</v>
+      </c>
+      <c r="G41" s="105">
+        <v>223163.76009499998</v>
+      </c>
+      <c r="H41" s="105">
+        <v>223163.76009499998</v>
+      </c>
+      <c r="I41" s="105">
+        <v>2370.5426399999997</v>
+      </c>
+      <c r="J41" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="88" t="s">
         <v>105</v>
       </c>
-      <c r="C23" s="48">
-        <f>[2]Financeira_base!F67</f>
-        <v>1088</v>
-      </c>
-      <c r="D23" s="48">
-        <f>[2]Financeira_base!H67</f>
-        <v>1088</v>
-      </c>
-      <c r="E23" s="48">
-        <f>[2]Financeira_base!J67</f>
-        <v>1088</v>
-      </c>
-      <c r="F23" s="48">
-        <f>[2]Financeira_base!L67</f>
-        <v>1088</v>
-      </c>
-      <c r="G23" s="48">
-        <f>[2]Financeira_base!N67</f>
-        <v>1088</v>
-      </c>
-      <c r="H23" s="48">
-        <f>[2]Financeira_base!R67</f>
-        <v>1088</v>
-      </c>
-      <c r="I23" s="48">
-        <f>[2]Financeira_base!T67</f>
-        <v>1088</v>
-      </c>
-      <c r="J23" s="48">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K23" s="90"/>
-    </row>
-    <row r="24" spans="1:11" s="91" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="89" t="s">
+      <c r="B42" s="105">
+        <v>130879.904627</v>
+      </c>
+      <c r="C42" s="105">
+        <v>131261.08410099999</v>
+      </c>
+      <c r="D42" s="105">
+        <v>155173.11640099998</v>
+      </c>
+      <c r="E42" s="105">
+        <v>154246.16345099997</v>
+      </c>
+      <c r="F42" s="105">
+        <v>133976.12305400029</v>
+      </c>
+      <c r="G42" s="105">
+        <v>133976.12305400029</v>
+      </c>
+      <c r="H42" s="105">
+        <v>133976.12305400029</v>
+      </c>
+      <c r="I42" s="105">
+        <v>-926.95295000000624</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" s="89" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="90" t="s">
         <v>106</v>
       </c>
-      <c r="B24" s="87" t="s">
+      <c r="B43" s="106">
+        <v>1720373.9037484718</v>
+      </c>
+      <c r="C43" s="106">
+        <v>1752991.4859565026</v>
+      </c>
+      <c r="D43" s="106">
+        <v>1787907.5648496037</v>
+      </c>
+      <c r="E43" s="106">
+        <v>1833726.3802580244</v>
+      </c>
+      <c r="F43" s="106">
+        <v>1723470.0593104719</v>
+      </c>
+      <c r="G43" s="106">
+        <v>1723470.0593104719</v>
+      </c>
+      <c r="H43" s="106">
+        <v>1723470.0593104719</v>
+      </c>
+      <c r="I43" s="106">
+        <v>45818.815408420749</v>
+      </c>
+      <c r="J43" s="91"/>
+    </row>
+    <row r="44" spans="1:10" s="69" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="92"/>
+      <c r="B44" s="93"/>
+      <c r="C44" s="93"/>
+      <c r="D44" s="93"/>
+      <c r="E44" s="93"/>
+      <c r="F44" s="93"/>
+      <c r="G44" s="93"/>
+      <c r="H44" s="93"/>
+      <c r="I44" s="93"/>
+      <c r="J44" s="80"/>
+    </row>
+    <row r="45" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="94" t="s">
         <v>107</v>
       </c>
-      <c r="C24" s="48">
-        <f>[2]Financeira_base!F68</f>
-        <v>30082.944155000001</v>
-      </c>
-      <c r="D24" s="48">
-        <f>[2]Financeira_base!H68</f>
-        <v>32526.890330869999</v>
-      </c>
-      <c r="E24" s="48">
-        <f>[2]Financeira_base!J68</f>
-        <v>33704.71967726</v>
-      </c>
-      <c r="F24" s="48">
-        <f>[2]Financeira_base!L68</f>
-        <v>33389.21427787</v>
-      </c>
-      <c r="G24" s="48">
-        <f>[2]Financeira_base!N68</f>
-        <v>30082.944155000001</v>
-      </c>
-      <c r="H24" s="48">
-        <f>[2]Financeira_base!R68</f>
-        <v>30082.944155000001</v>
-      </c>
-      <c r="I24" s="48">
-        <f>[2]Financeira_base!T68</f>
-        <v>30082.944155000001</v>
-      </c>
-      <c r="J24" s="48">
-        <f t="shared" si="0"/>
-        <v>-315.50539939000009</v>
-      </c>
-      <c r="K24" s="90"/>
-    </row>
-    <row r="25" spans="1:11" s="91" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="89" t="s">
-        <v>108</v>
-      </c>
-      <c r="B25" s="87" t="s">
-        <v>109</v>
-      </c>
-      <c r="C25" s="48">
-        <f>[2]Financeira_base!F69</f>
-        <v>2271.5726099999993</v>
-      </c>
-      <c r="D25" s="48">
-        <f>[2]Financeira_base!H69</f>
-        <v>2277.490597</v>
-      </c>
-      <c r="E25" s="48">
-        <f>[2]Financeira_base!J69</f>
-        <v>2308.490597</v>
-      </c>
-      <c r="F25" s="48">
-        <f>[2]Financeira_base!L69</f>
-        <v>2308.3375529999994</v>
-      </c>
-      <c r="G25" s="48">
-        <f>[2]Financeira_base!N69</f>
-        <v>2271.5726099999993</v>
-      </c>
-      <c r="H25" s="48">
-        <f>[2]Financeira_base!R69</f>
-        <v>2271.5726099999993</v>
-      </c>
-      <c r="I25" s="48">
-        <f>[2]Financeira_base!T69</f>
-        <v>2271.5726099999993</v>
-      </c>
-      <c r="J25" s="48">
-        <f t="shared" si="0"/>
-        <v>-0.15304400000059104</v>
-      </c>
-      <c r="K25" s="90"/>
-    </row>
-    <row r="26" spans="1:11" s="91" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="89" t="s">
-        <v>110</v>
-      </c>
-      <c r="B26" s="87" t="s">
-        <v>111</v>
-      </c>
-      <c r="C26" s="48">
-        <f>[2]Financeira_base!F70</f>
-        <v>0</v>
-      </c>
-      <c r="D26" s="48">
-        <f>[2]Financeira_base!H70</f>
-        <v>0</v>
-      </c>
-      <c r="E26" s="48">
-        <f>[2]Financeira_base!J70</f>
-        <v>0</v>
-      </c>
-      <c r="F26" s="48">
-        <f>[2]Financeira_base!L70</f>
-        <v>0</v>
-      </c>
-      <c r="G26" s="48">
-        <f>[2]Financeira_base!N70</f>
-        <v>0</v>
-      </c>
-      <c r="H26" s="48">
-        <f>[2]Financeira_base!R70</f>
-        <v>0</v>
-      </c>
-      <c r="I26" s="48">
-        <f>[2]Financeira_base!T70</f>
-        <v>0</v>
-      </c>
-      <c r="J26" s="48">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K26" s="90"/>
-    </row>
-    <row r="27" spans="1:11" s="91" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="89" t="s">
-        <v>112</v>
-      </c>
-      <c r="B27" s="87" t="s">
-        <v>113</v>
-      </c>
-      <c r="C27" s="48">
-        <f>[2]Financeira_base!F71</f>
-        <v>17993.648703999999</v>
-      </c>
-      <c r="D27" s="48">
-        <f>[2]Financeira_base!H71</f>
-        <v>18225.377805999997</v>
-      </c>
-      <c r="E27" s="48">
-        <f>[2]Financeira_base!J71</f>
-        <v>18225.377805999997</v>
-      </c>
-      <c r="F27" s="48">
-        <f>[2]Financeira_base!L71</f>
-        <v>17989.600804999998</v>
-      </c>
-      <c r="G27" s="48">
-        <f>[2]Financeira_base!N71</f>
-        <v>17993.648703999999</v>
-      </c>
-      <c r="H27" s="48">
-        <f>[2]Financeira_base!R71</f>
-        <v>17993.648703999999</v>
-      </c>
-      <c r="I27" s="48">
-        <f>[2]Financeira_base!T71</f>
-        <v>17993.648703999999</v>
-      </c>
-      <c r="J27" s="48">
-        <f t="shared" si="0"/>
-        <v>-235.77700099999856</v>
-      </c>
-      <c r="K27" s="90"/>
-    </row>
-    <row r="28" spans="1:11" s="91" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="95" t="s">
-        <v>114</v>
-      </c>
-      <c r="B28" s="96" t="s">
-        <v>115</v>
-      </c>
-      <c r="C28" s="48">
-        <f>[2]Financeira_base!AD72</f>
-        <v>0</v>
-      </c>
-      <c r="D28" s="48">
-        <f>[2]Financeira_base!AF72</f>
-        <v>0</v>
-      </c>
-      <c r="E28" s="48">
-        <f>[2]Financeira_base!AH72</f>
-        <v>0</v>
-      </c>
-      <c r="F28" s="48">
-        <f>[2]Financeira_base!AI72</f>
-        <v>0</v>
-      </c>
-      <c r="G28" s="48">
-        <f>[2]Financeira_base!AK72</f>
-        <v>0</v>
-      </c>
-      <c r="H28" s="48">
-        <f>[2]Financeira_base!AM72</f>
-        <v>0</v>
-      </c>
-      <c r="I28" s="48">
-        <f>[2]Financeira_base!AO72</f>
-        <v>0</v>
-      </c>
-      <c r="J28" s="48">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K28" s="90"/>
-    </row>
-    <row r="29" spans="1:11" s="91" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="97" t="s">
-        <v>116</v>
-      </c>
-      <c r="B29" s="98" t="s">
-        <v>117</v>
-      </c>
-      <c r="C29" s="48">
-        <f>[2]Financeira_base!AD73</f>
-        <v>0</v>
-      </c>
-      <c r="D29" s="48">
-        <f>[2]Financeira_base!AF73</f>
-        <v>0</v>
-      </c>
-      <c r="E29" s="48">
-        <f>[2]Financeira_base!AH73</f>
-        <v>0</v>
-      </c>
-      <c r="F29" s="48">
-        <f>[2]Financeira_base!AI73</f>
-        <v>0</v>
-      </c>
-      <c r="G29" s="48">
-        <f>[2]Financeira_base!AK73</f>
-        <v>0</v>
-      </c>
-      <c r="H29" s="48">
-        <f>[2]Financeira_base!AM73</f>
-        <v>0</v>
-      </c>
-      <c r="I29" s="48">
-        <f>[2]Financeira_base!AO73</f>
-        <v>0</v>
-      </c>
-      <c r="J29" s="48">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K29" s="90"/>
-    </row>
-    <row r="30" spans="1:11" s="91" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="97" t="s">
-        <v>118</v>
-      </c>
-      <c r="B30" s="98" t="s">
-        <v>103</v>
-      </c>
-      <c r="C30" s="48">
-        <f>[2]Financeira_base!AD74</f>
-        <v>0</v>
-      </c>
-      <c r="D30" s="48">
-        <f>[2]Financeira_base!AF74</f>
-        <v>0</v>
-      </c>
-      <c r="E30" s="48">
-        <f>[2]Financeira_base!AH74</f>
-        <v>0</v>
-      </c>
-      <c r="F30" s="48">
-        <f>[2]Financeira_base!AI74</f>
-        <v>0</v>
-      </c>
-      <c r="G30" s="48">
-        <f>[2]Financeira_base!AK74</f>
-        <v>0</v>
-      </c>
-      <c r="H30" s="48">
-        <f>[2]Financeira_base!AM74</f>
-        <v>0</v>
-      </c>
-      <c r="I30" s="48">
-        <f>[2]Financeira_base!AO74</f>
-        <v>0</v>
-      </c>
-      <c r="J30" s="48">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K30" s="90"/>
-    </row>
-    <row r="31" spans="1:11" s="91" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="95" t="s">
-        <v>119</v>
-      </c>
-      <c r="B31" s="96" t="s">
-        <v>120</v>
-      </c>
-      <c r="C31" s="48">
-        <f>[2]Financeira_base!AD75</f>
-        <v>0</v>
-      </c>
-      <c r="D31" s="48">
-        <f>[2]Financeira_base!AF75</f>
-        <v>0</v>
-      </c>
-      <c r="E31" s="48">
-        <f>[2]Financeira_base!AH75</f>
-        <v>0</v>
-      </c>
-      <c r="F31" s="48">
-        <f>[2]Financeira_base!AI75</f>
-        <v>0</v>
-      </c>
-      <c r="G31" s="48">
-        <f>[2]Financeira_base!AK75</f>
-        <v>0</v>
-      </c>
-      <c r="H31" s="48">
-        <f>[2]Financeira_base!AM75</f>
-        <v>0</v>
-      </c>
-      <c r="I31" s="48">
-        <f>[2]Financeira_base!AO75</f>
-        <v>0</v>
-      </c>
-      <c r="J31" s="48">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K31" s="90"/>
-    </row>
-    <row r="32" spans="1:11" s="91" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="89" t="s">
-        <v>121</v>
-      </c>
-      <c r="B32" s="87" t="s">
-        <v>122</v>
-      </c>
-      <c r="C32" s="48">
-        <f>[2]Financeira_base!F76</f>
-        <v>4000</v>
-      </c>
-      <c r="D32" s="48">
-        <f>[2]Financeira_base!H76</f>
-        <v>4000</v>
-      </c>
-      <c r="E32" s="48">
-        <f>[2]Financeira_base!J76</f>
-        <v>4000</v>
-      </c>
-      <c r="F32" s="48">
-        <f>[2]Financeira_base!L76</f>
-        <v>4000</v>
-      </c>
-      <c r="G32" s="48">
-        <f>[2]Financeira_base!N76</f>
-        <v>4000</v>
-      </c>
-      <c r="H32" s="48">
-        <f>[2]Financeira_base!R76</f>
-        <v>4000</v>
-      </c>
-      <c r="I32" s="48">
-        <f>[2]Financeira_base!T76</f>
-        <v>4000</v>
-      </c>
-      <c r="J32" s="48">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K32" s="90"/>
-    </row>
-    <row r="33" spans="1:11" s="91" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="89" t="s">
-        <v>123</v>
-      </c>
-      <c r="B33" s="87" t="s">
-        <v>124</v>
-      </c>
-      <c r="C33" s="48">
-        <f>[2]Financeira_base!F77</f>
-        <v>2401.8593040000001</v>
-      </c>
-      <c r="D33" s="48">
-        <f>[2]Financeira_base!H77</f>
-        <v>0</v>
-      </c>
-      <c r="E33" s="48">
-        <f>[2]Financeira_base!J77</f>
-        <v>0</v>
-      </c>
-      <c r="F33" s="48">
-        <f>[2]Financeira_base!L77</f>
-        <v>0</v>
-      </c>
-      <c r="G33" s="48">
-        <f>[2]Financeira_base!N77</f>
-        <v>2401.8593040000001</v>
-      </c>
-      <c r="H33" s="48">
-        <f>[2]Financeira_base!R77</f>
-        <v>2401.8593040000001</v>
-      </c>
-      <c r="I33" s="48">
-        <f>[2]Financeira_base!T77</f>
-        <v>2401.8593040000001</v>
-      </c>
-      <c r="J33" s="48">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K33" s="90"/>
-    </row>
-    <row r="34" spans="1:11" s="91" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="89" t="s">
-        <v>125</v>
-      </c>
-      <c r="B34" s="87" t="s">
-        <v>126</v>
-      </c>
-      <c r="C34" s="48">
-        <f>[2]Financeira_base!F79</f>
-        <v>26979.334211999998</v>
-      </c>
-      <c r="D34" s="48">
-        <f>[2]Financeira_base!H79</f>
-        <v>29381.193515999999</v>
-      </c>
-      <c r="E34" s="48">
-        <f>[2]Financeira_base!J79</f>
-        <v>19454.928241000001</v>
-      </c>
-      <c r="F34" s="48">
-        <f>[2]Financeira_base!L79</f>
-        <v>19182.582804999998</v>
-      </c>
-      <c r="G34" s="48">
-        <f>[2]Financeira_base!N79</f>
-        <v>26979.334211999998</v>
-      </c>
-      <c r="H34" s="48">
-        <f>[2]Financeira_base!R79</f>
-        <v>26979.334211999998</v>
-      </c>
-      <c r="I34" s="48">
-        <f>[2]Financeira_base!T79</f>
-        <v>26979.334211999998</v>
-      </c>
-      <c r="J34" s="48">
-        <f t="shared" si="0"/>
-        <v>-272.34543600000325</v>
-      </c>
-      <c r="K34" s="90"/>
-    </row>
-    <row r="35" spans="1:11" s="91" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="89" t="s">
-        <v>127</v>
-      </c>
-      <c r="B35" s="87" t="s">
-        <v>128</v>
-      </c>
-      <c r="C35" s="48">
-        <f>[2]Financeira_base!F80</f>
-        <v>13377.631358659557</v>
-      </c>
-      <c r="D35" s="48">
-        <f>[2]Financeira_base!H80</f>
-        <v>18471.966013661509</v>
-      </c>
-      <c r="E35" s="48">
-        <f>[2]Financeira_base!J80</f>
-        <v>23035.501975169766</v>
-      </c>
-      <c r="F35" s="48">
-        <f>[2]Financeira_base!L80</f>
-        <v>22278.757706546177</v>
-      </c>
-      <c r="G35" s="48">
-        <f>[2]Financeira_base!N80</f>
-        <v>13377.631358659557</v>
-      </c>
-      <c r="H35" s="48">
-        <f>[2]Financeira_base!R80</f>
-        <v>13377.631358659557</v>
-      </c>
-      <c r="I35" s="48">
-        <f>[2]Financeira_base!T80</f>
-        <v>13377.631358659557</v>
-      </c>
-      <c r="J35" s="48">
-        <f t="shared" si="0"/>
-        <v>-756.74426862358814</v>
-      </c>
-      <c r="K35" s="90"/>
-    </row>
-    <row r="36" spans="1:11" s="91" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="89" t="s">
-        <v>129</v>
-      </c>
-      <c r="B36" s="87" t="s">
-        <v>130</v>
-      </c>
-      <c r="C36" s="48">
-        <f>[2]Financeira_base!F81</f>
-        <v>0</v>
-      </c>
-      <c r="D36" s="48">
-        <f>[2]Financeira_base!H81</f>
-        <v>0</v>
-      </c>
-      <c r="E36" s="48">
-        <f>[2]Financeira_base!J81</f>
-        <v>0</v>
-      </c>
-      <c r="F36" s="48">
-        <f>[2]Financeira_base!L81</f>
-        <v>0</v>
-      </c>
-      <c r="G36" s="48">
-        <f>[2]Financeira_base!N81</f>
-        <v>0</v>
-      </c>
-      <c r="H36" s="48">
-        <f>[2]Financeira_base!R81</f>
-        <v>0</v>
-      </c>
-      <c r="I36" s="48">
-        <f>[2]Financeira_base!T81</f>
-        <v>0</v>
-      </c>
-      <c r="J36" s="48">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K36" s="90"/>
-    </row>
-    <row r="37" spans="1:11" s="91" customFormat="1" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="89" t="s">
-        <v>131</v>
-      </c>
-      <c r="B37" s="87" t="s">
-        <v>132</v>
-      </c>
-      <c r="C37" s="48">
-        <f>[2]Financeira_base!F82</f>
-        <v>0</v>
-      </c>
-      <c r="D37" s="48">
-        <f>[2]Financeira_base!H82</f>
-        <v>0</v>
-      </c>
-      <c r="E37" s="48">
-        <f>[2]Financeira_base!J82</f>
-        <v>0</v>
-      </c>
-      <c r="F37" s="48">
-        <f>[2]Financeira_base!L82</f>
-        <v>0</v>
-      </c>
-      <c r="G37" s="48">
-        <f>[2]Financeira_base!N82</f>
-        <v>0</v>
-      </c>
-      <c r="H37" s="48">
-        <f>[2]Financeira_base!R82</f>
-        <v>0</v>
-      </c>
-      <c r="I37" s="48">
-        <f>[2]Financeira_base!T82</f>
-        <v>0</v>
-      </c>
-      <c r="J37" s="48">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K37" s="90"/>
-    </row>
-    <row r="38" spans="1:11" s="73" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="87" t="s">
-        <v>133</v>
-      </c>
-      <c r="B38" s="87" t="s">
-        <v>134</v>
-      </c>
-      <c r="C38" s="48">
-        <f>[2]Financeira_base!F83</f>
-        <v>169.89536200000001</v>
-      </c>
-      <c r="D38" s="48">
-        <f>[2]Financeira_base!H83</f>
-        <v>121.67674100000001</v>
-      </c>
-      <c r="E38" s="48">
-        <f>[2]Financeira_base!J83</f>
-        <v>131.979512</v>
-      </c>
-      <c r="F38" s="48">
-        <f>[2]Financeira_base!L83</f>
-        <v>137.919265</v>
-      </c>
-      <c r="G38" s="48">
-        <f>[2]Financeira_base!N83</f>
-        <v>169.89536200000001</v>
-      </c>
-      <c r="H38" s="48">
-        <f>[2]Financeira_base!R83</f>
-        <v>169.89536200000001</v>
-      </c>
-      <c r="I38" s="48">
-        <f>[2]Financeira_base!T83</f>
-        <v>169.89536200000001</v>
-      </c>
-      <c r="J38" s="48">
-        <f t="shared" si="0"/>
-        <v>5.9397529999999961</v>
-      </c>
-      <c r="K38" s="85"/>
-    </row>
-    <row r="39" spans="1:11" s="73" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="87" t="s">
-        <v>135</v>
-      </c>
-      <c r="B39" s="87" t="s">
-        <v>136</v>
-      </c>
-      <c r="C39" s="48">
-        <f>[2]Financeira_base!F84</f>
-        <v>1380.273768</v>
-      </c>
-      <c r="D39" s="48">
-        <f>[2]Financeira_base!H84</f>
-        <v>1487.955483</v>
-      </c>
-      <c r="E39" s="48">
-        <f>[2]Financeira_base!J84</f>
-        <v>1482.976435</v>
-      </c>
-      <c r="F39" s="48">
-        <f>[2]Financeira_base!L84</f>
-        <v>1483.409269</v>
-      </c>
-      <c r="G39" s="48">
-        <f>[2]Financeira_base!N84</f>
-        <v>1380.273768</v>
-      </c>
-      <c r="H39" s="48">
-        <f>[2]Financeira_base!R84</f>
-        <v>1380.273768</v>
-      </c>
-      <c r="I39" s="48">
-        <f>[2]Financeira_base!T84</f>
-        <v>1380.273768</v>
-      </c>
-      <c r="J39" s="48">
-        <f t="shared" si="0"/>
-        <v>0.43283399999995709</v>
-      </c>
-      <c r="K39" s="85"/>
-    </row>
-    <row r="40" spans="1:11" s="73" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="87"/>
-      <c r="B40" s="87" t="s">
-        <v>137</v>
-      </c>
-      <c r="C40" s="48">
-        <f>[2]Financeira_base!F85</f>
-        <v>1643.3812350000001</v>
-      </c>
-      <c r="D40" s="48">
-        <f>[2]Financeira_base!H85</f>
-        <v>968.60924077713685</v>
-      </c>
-      <c r="E40" s="48">
-        <f>[2]Financeira_base!J85</f>
-        <v>905.04364763196531</v>
-      </c>
-      <c r="F40" s="48">
-        <f>[2]Financeira_base!L85</f>
-        <v>1102.7373349499801</v>
-      </c>
-      <c r="G40" s="48">
-        <f>[2]Financeira_base!N85</f>
-        <v>1643.3812350000001</v>
-      </c>
-      <c r="H40" s="48">
-        <f>[2]Financeira_base!R85</f>
-        <v>1643.3812350000001</v>
-      </c>
-      <c r="I40" s="48">
-        <f>[2]Financeira_base!T85</f>
-        <v>1643.3812350000001</v>
-      </c>
-      <c r="J40" s="48">
-        <f t="shared" si="0"/>
-        <v>197.69368731801478</v>
-      </c>
-      <c r="K40" s="85"/>
-    </row>
-    <row r="41" spans="1:11" s="73" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="87"/>
-      <c r="B41" s="87" t="s">
-        <v>138</v>
-      </c>
-      <c r="C41" s="48">
-        <f>[2]Financeira_base!F86</f>
-        <v>4961.5197770000004</v>
-      </c>
-      <c r="D41" s="48">
-        <f>[2]Financeira_base!H86</f>
-        <v>4961.5197770000004</v>
-      </c>
-      <c r="E41" s="48">
-        <f>[2]Financeira_base!J86</f>
-        <v>4961.5197770000004</v>
-      </c>
-      <c r="F41" s="48">
-        <f>[2]Financeira_base!L86</f>
-        <v>4961.5197770000004</v>
-      </c>
-      <c r="G41" s="48">
-        <f>[2]Financeira_base!N86</f>
-        <v>4961.5197770000004</v>
-      </c>
-      <c r="H41" s="48">
-        <f>[2]Financeira_base!R86</f>
-        <v>4961.5197770000004</v>
-      </c>
-      <c r="I41" s="48">
-        <f>[2]Financeira_base!T86</f>
-        <v>4961.5197770000004</v>
-      </c>
-      <c r="J41" s="48">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K41" s="85"/>
-    </row>
-    <row r="42" spans="1:11" s="73" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="87"/>
-      <c r="B42" s="87" t="s">
-        <v>139</v>
-      </c>
-      <c r="C42" s="48">
-        <f>[2]Financeira_base!F87</f>
-        <v>223163.86520899998</v>
-      </c>
-      <c r="D42" s="48">
-        <f>[2]Financeira_base!H87</f>
-        <v>223140.58733099999</v>
-      </c>
-      <c r="E42" s="48">
-        <f>[2]Financeira_base!J87</f>
-        <v>223206.385152</v>
-      </c>
-      <c r="F42" s="48">
-        <f>[2]Financeira_base!L87</f>
-        <v>225576.927792</v>
-      </c>
-      <c r="G42" s="48">
-        <f>[2]Financeira_base!N87</f>
-        <v>223163.76009499998</v>
-      </c>
-      <c r="H42" s="48">
-        <f>[2]Financeira_base!R87</f>
-        <v>223163.76009499998</v>
-      </c>
-      <c r="I42" s="48">
-        <f>[2]Financeira_base!T87</f>
-        <v>223163.76009499998</v>
-      </c>
-      <c r="J42" s="48">
-        <f t="shared" si="0"/>
-        <v>2370.5426399999997</v>
-      </c>
-      <c r="K42" s="85"/>
-    </row>
-    <row r="43" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="99" t="s">
-        <v>140</v>
-      </c>
-      <c r="C43" s="48">
-        <f>[2]Financeira_base!F88+[2]Financeira_base!F89</f>
-        <v>130879.904627</v>
-      </c>
-      <c r="D43" s="48">
-        <f>[2]Financeira_base!H88+[2]Financeira_base!H89</f>
-        <v>131261.08410099999</v>
-      </c>
-      <c r="E43" s="48">
-        <f>[2]Financeira_base!J88+[2]Financeira_base!J89</f>
-        <v>155173.11640099998</v>
-      </c>
-      <c r="F43" s="48">
-        <f>[2]Financeira_base!L88+[2]Financeira_base!L89</f>
-        <v>154246.16345099997</v>
-      </c>
-      <c r="G43" s="48">
-        <f>[2]Financeira_base!N88+[2]Financeira_base!N89</f>
-        <v>133976.12305400029</v>
-      </c>
-      <c r="H43" s="48">
-        <f>[2]Financeira_base!R88+[2]Financeira_base!R89</f>
-        <v>133976.12305400029</v>
-      </c>
-      <c r="I43" s="48">
-        <f>[2]Financeira_base!T88+[2]Financeira_base!T89</f>
-        <v>133976.12305400029</v>
-      </c>
-      <c r="J43" s="48">
-        <f t="shared" si="0"/>
-        <v>-926.95295000000624</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" s="100" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="101" t="s">
-        <v>141</v>
-      </c>
-      <c r="C44" s="102">
-        <f t="shared" ref="C44:I44" si="2">C7+C8+C9+C43</f>
-        <v>1720373.9037484718</v>
-      </c>
-      <c r="D44" s="102">
-        <f t="shared" si="2"/>
-        <v>1752991.4859565026</v>
-      </c>
-      <c r="E44" s="102">
-        <f t="shared" si="2"/>
-        <v>1787907.5648496037</v>
-      </c>
-      <c r="F44" s="102">
-        <f t="shared" si="2"/>
-        <v>1833726.3802580244</v>
-      </c>
-      <c r="G44" s="102">
-        <f t="shared" si="2"/>
-        <v>1723470.0593104719</v>
-      </c>
-      <c r="H44" s="102">
-        <f t="shared" si="2"/>
-        <v>1723470.0593104719</v>
-      </c>
-      <c r="I44" s="102">
-        <f t="shared" si="2"/>
-        <v>1723470.0593104719</v>
-      </c>
-      <c r="J44" s="102">
-        <f t="shared" si="0"/>
-        <v>45818.815408420749</v>
-      </c>
-      <c r="K44" s="103"/>
-    </row>
-    <row r="45" spans="1:11" s="73" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="104"/>
-      <c r="C45" s="105"/>
-      <c r="D45" s="105"/>
-      <c r="E45" s="105"/>
-      <c r="F45" s="105"/>
-      <c r="G45" s="105"/>
-      <c r="H45" s="105"/>
-      <c r="I45" s="105"/>
-      <c r="J45" s="105"/>
-      <c r="K45" s="85"/>
-    </row>
-    <row r="46" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="106" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="106" t="s">
+    </row>
+    <row r="46" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="94" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="49" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="50" spans="2:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C50" s="107"/>
-      <c r="D50" s="108"/>
-      <c r="E50" s="108"/>
-      <c r="F50" s="108"/>
-      <c r="G50" s="108"/>
-      <c r="H50" s="108"/>
-      <c r="I50" s="108"/>
-      <c r="J50" s="109">
-        <f>[2]Financeira_base!V50</f>
-        <v>45818.815408420982</v>
-      </c>
-    </row>
-    <row r="51" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C51" s="110" t="s">
-        <v>66</v>
-      </c>
-      <c r="J51" s="111">
-        <f>J50-J44</f>
-        <v>2.3283064365386963E-10</v>
-      </c>
-    </row>
-    <row r="52" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C52" s="112" t="s">
-        <v>143</v>
-      </c>
-      <c r="D52" s="113"/>
-      <c r="E52" s="113"/>
-      <c r="F52" s="113"/>
-      <c r="G52" s="113"/>
-      <c r="H52" s="113"/>
-      <c r="I52" s="113"/>
-      <c r="J52" s="114">
-        <f>J42-[2]Despesa_obrig_cont_fluxo!J43</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="2:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="54" spans="2:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="139" t="s">
-        <v>144</v>
-      </c>
-      <c r="C54" s="139"/>
-      <c r="D54" s="139"/>
-      <c r="E54" s="139"/>
-      <c r="F54" s="139"/>
-      <c r="G54" s="115"/>
-      <c r="H54" s="115"/>
-      <c r="I54" s="115"/>
-    </row>
-    <row r="55" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="116"/>
-      <c r="C55" s="116"/>
-      <c r="D55" s="116"/>
-      <c r="E55" s="116"/>
-      <c r="F55" s="116"/>
-      <c r="G55" s="116"/>
-      <c r="H55" s="116"/>
-      <c r="I55" s="116"/>
-      <c r="J55" s="116"/>
-    </row>
-    <row r="56" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="80"/>
-      <c r="C56" s="81"/>
-      <c r="D56" s="81"/>
-      <c r="E56" s="81"/>
-      <c r="F56" s="81"/>
-      <c r="G56" s="81"/>
-      <c r="H56" s="81"/>
-      <c r="I56" s="81"/>
-      <c r="J56" s="82" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="2:10" ht="87" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="83" t="s">
-        <v>68</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E57" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="F57" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="G57" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="H57" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="I57" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="J57" s="33" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="58" spans="2:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="117" t="s">
-        <v>74</v>
-      </c>
-      <c r="C59" s="48">
-        <f t="shared" ref="C59:I60" si="3">C7</f>
-        <v>777717.34199999995</v>
-      </c>
-      <c r="D59" s="48">
-        <f t="shared" si="3"/>
-        <v>778063.51642113004</v>
-      </c>
-      <c r="E59" s="48">
-        <f t="shared" si="3"/>
-        <v>788693.26409999991</v>
-      </c>
-      <c r="F59" s="48">
-        <f t="shared" si="3"/>
-        <v>789647.67182999989</v>
-      </c>
-      <c r="G59" s="48">
-        <f t="shared" si="3"/>
-        <v>777717.34199999995</v>
-      </c>
-      <c r="H59" s="48">
-        <f t="shared" si="3"/>
-        <v>777717.34199999995</v>
-      </c>
-      <c r="I59" s="48">
-        <f t="shared" si="3"/>
-        <v>777717.34199999995</v>
-      </c>
-      <c r="J59" s="48">
-        <f>F59-E59</f>
-        <v>954.40772999997716</v>
-      </c>
-    </row>
-    <row r="60" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="118" t="s">
-        <v>76</v>
-      </c>
-      <c r="C60" s="48">
-        <f t="shared" si="3"/>
-        <v>336102.49535081221</v>
-      </c>
-      <c r="D60" s="48">
-        <f t="shared" si="3"/>
-        <v>338550.74923881225</v>
-      </c>
-      <c r="E60" s="48">
-        <f t="shared" si="3"/>
-        <v>341339.90996580216</v>
-      </c>
-      <c r="F60" s="48">
-        <f t="shared" si="3"/>
-        <v>339586.2144448022</v>
-      </c>
-      <c r="G60" s="48">
-        <f t="shared" si="3"/>
-        <v>336102.49462981219</v>
-      </c>
-      <c r="H60" s="48">
-        <f t="shared" si="3"/>
-        <v>336102.49462981219</v>
-      </c>
-      <c r="I60" s="48">
-        <f t="shared" si="3"/>
-        <v>336102.49462981219</v>
-      </c>
-      <c r="J60" s="48">
-        <f t="shared" ref="J60:J86" si="4">F60-E60</f>
-        <v>-1753.6955209999578</v>
-      </c>
-    </row>
-    <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="117" t="s">
-        <v>79</v>
-      </c>
-      <c r="C61" s="48">
-        <f t="shared" ref="C61:I66" si="5">C10</f>
-        <v>65822.521438000011</v>
-      </c>
-      <c r="D61" s="48">
-        <f t="shared" si="5"/>
-        <v>64376.6510652824</v>
-      </c>
-      <c r="E61" s="48">
-        <f t="shared" si="5"/>
-        <v>65377.056970159996</v>
-      </c>
-      <c r="F61" s="48">
-        <f t="shared" si="5"/>
-        <v>65874.69817376</v>
-      </c>
-      <c r="G61" s="48">
-        <f t="shared" si="5"/>
-        <v>65822.521438000011</v>
-      </c>
-      <c r="H61" s="48">
-        <f t="shared" si="5"/>
-        <v>65822.521438000011</v>
-      </c>
-      <c r="I61" s="48">
-        <f t="shared" si="5"/>
-        <v>65822.521438000011</v>
-      </c>
-      <c r="J61" s="48">
-        <f t="shared" si="4"/>
-        <v>497.64120360000379</v>
-      </c>
-    </row>
-    <row r="62" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="118" t="s">
-        <v>81</v>
-      </c>
-      <c r="C62" s="119">
-        <f t="shared" si="5"/>
-        <v>174.093797</v>
-      </c>
-      <c r="D62" s="119">
-        <f t="shared" si="5"/>
-        <v>174.093797</v>
-      </c>
-      <c r="E62" s="119">
-        <f t="shared" si="5"/>
-        <v>174.093797</v>
-      </c>
-      <c r="F62" s="119">
-        <f t="shared" si="5"/>
-        <v>174.093797</v>
-      </c>
-      <c r="G62" s="119">
-        <f t="shared" si="5"/>
-        <v>174.093797</v>
-      </c>
-      <c r="H62" s="119">
-        <f t="shared" si="5"/>
-        <v>174.093797</v>
-      </c>
-      <c r="I62" s="119">
-        <f t="shared" si="5"/>
-        <v>174.093797</v>
-      </c>
-      <c r="J62" s="48">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="117" t="s">
-        <v>83</v>
-      </c>
-      <c r="C63" s="119">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="D63" s="119">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E63" s="119">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F63" s="119">
-        <f t="shared" si="5"/>
-        <v>10162</v>
-      </c>
-      <c r="G63" s="119">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H63" s="119">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I63" s="119">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J63" s="48">
-        <f t="shared" si="4"/>
-        <v>10162</v>
-      </c>
-    </row>
-    <row r="64" spans="2:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="118" t="s">
-        <v>85</v>
-      </c>
-      <c r="C64" s="119">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="D64" s="119">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E64" s="119">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F64" s="119">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G64" s="119">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H64" s="119">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I64" s="119">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J64" s="48">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="118" t="s">
-        <v>87</v>
-      </c>
-      <c r="C65" s="119">
-        <f t="shared" si="5"/>
-        <v>803.07874800000002</v>
-      </c>
-      <c r="D65" s="119">
-        <f t="shared" si="5"/>
-        <v>803.07874800000002</v>
-      </c>
-      <c r="E65" s="119">
-        <f t="shared" si="5"/>
-        <v>773.07874800000002</v>
-      </c>
-      <c r="F65" s="119">
-        <f t="shared" si="5"/>
-        <v>773.08159999999998</v>
-      </c>
-      <c r="G65" s="119">
-        <f t="shared" si="5"/>
-        <v>803.07874800000002</v>
-      </c>
-      <c r="H65" s="119">
-        <f t="shared" si="5"/>
-        <v>803.07874800000002</v>
-      </c>
-      <c r="I65" s="119">
-        <f t="shared" si="5"/>
-        <v>803.07874800000002</v>
-      </c>
-      <c r="J65" s="48">
-        <f t="shared" si="4"/>
-        <v>2.851999999961663E-3</v>
-      </c>
-    </row>
-    <row r="66" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="118" t="s">
-        <v>89</v>
-      </c>
-      <c r="C66" s="119">
-        <f t="shared" si="5"/>
-        <v>76168.434958999991</v>
-      </c>
-      <c r="D66" s="119">
-        <f t="shared" si="5"/>
-        <v>76025.734694252591</v>
-      </c>
-      <c r="E66" s="119">
-        <f t="shared" si="5"/>
-        <v>76957.988756999999</v>
-      </c>
-      <c r="F66" s="119">
-        <f t="shared" si="5"/>
-        <v>77961.388789966324</v>
-      </c>
-      <c r="G66" s="119">
-        <f t="shared" si="5"/>
-        <v>76168.477928999986</v>
-      </c>
-      <c r="H66" s="119">
-        <f t="shared" si="5"/>
-        <v>76168.477928999986</v>
-      </c>
-      <c r="I66" s="119">
-        <f t="shared" si="5"/>
-        <v>76168.477928999986</v>
-      </c>
-      <c r="J66" s="48">
-        <f t="shared" si="4"/>
-        <v>1003.4000329663249</v>
-      </c>
-    </row>
-    <row r="67" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="118" t="s">
-        <v>93</v>
-      </c>
-      <c r="C67" s="119">
-        <f t="shared" ref="C67:I70" si="6">C17</f>
-        <v>0</v>
-      </c>
-      <c r="D67" s="119">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E67" s="119">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F67" s="119">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G67" s="119">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H67" s="119">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I67" s="119">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J67" s="48">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="118" t="s">
-        <v>95</v>
-      </c>
-      <c r="C68" s="119">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="D68" s="119">
-        <f t="shared" si="6"/>
-        <v>23837.710497339998</v>
-      </c>
-      <c r="E68" s="119">
-        <f t="shared" si="6"/>
-        <v>23818.043290580001</v>
-      </c>
-      <c r="F68" s="119">
-        <f t="shared" si="6"/>
-        <v>58705.971586129999</v>
-      </c>
-      <c r="G68" s="119">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H68" s="119">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I68" s="119">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J68" s="48">
-        <f t="shared" si="4"/>
-        <v>34887.928295549995</v>
-      </c>
-    </row>
-    <row r="69" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="117" t="s">
-        <v>97</v>
-      </c>
-      <c r="C69" s="119">
-        <f t="shared" si="6"/>
-        <v>3192.1071339999999</v>
-      </c>
-      <c r="D69" s="119">
-        <f t="shared" si="6"/>
-        <v>3247.600557376878</v>
-      </c>
-      <c r="E69" s="119">
-        <f t="shared" si="6"/>
-        <v>3096.0899999999997</v>
-      </c>
-      <c r="F69" s="119">
-        <f t="shared" si="6"/>
-        <v>3096.0899999999997</v>
-      </c>
-      <c r="G69" s="119">
-        <f t="shared" si="6"/>
-        <v>3192.1071339999999</v>
-      </c>
-      <c r="H69" s="119">
-        <f t="shared" si="6"/>
-        <v>3192.1071339999999</v>
-      </c>
-      <c r="I69" s="119">
-        <f t="shared" si="6"/>
-        <v>3192.1071339999999</v>
-      </c>
-      <c r="J69" s="48">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="2:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="118" t="s">
-        <v>99</v>
-      </c>
-      <c r="C70" s="119">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="D70" s="119">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E70" s="119">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F70" s="119">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G70" s="119">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H70" s="119">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I70" s="119">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J70" s="48">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B71" s="118" t="s">
-        <v>105</v>
-      </c>
-      <c r="C71" s="119">
-        <f t="shared" ref="C71:I75" si="7">C23</f>
-        <v>1088</v>
-      </c>
-      <c r="D71" s="119">
-        <f t="shared" si="7"/>
-        <v>1088</v>
-      </c>
-      <c r="E71" s="119">
-        <f t="shared" si="7"/>
-        <v>1088</v>
-      </c>
-      <c r="F71" s="119">
-        <f t="shared" si="7"/>
-        <v>1088</v>
-      </c>
-      <c r="G71" s="119">
-        <f t="shared" si="7"/>
-        <v>1088</v>
-      </c>
-      <c r="H71" s="119">
-        <f t="shared" si="7"/>
-        <v>1088</v>
-      </c>
-      <c r="I71" s="119">
-        <f t="shared" si="7"/>
-        <v>1088</v>
-      </c>
-      <c r="J71" s="48">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="117" t="s">
-        <v>145</v>
-      </c>
-      <c r="C72" s="119">
-        <f t="shared" si="7"/>
-        <v>30082.944155000001</v>
-      </c>
-      <c r="D72" s="119">
-        <f t="shared" si="7"/>
-        <v>32526.890330869999</v>
-      </c>
-      <c r="E72" s="119">
-        <f t="shared" si="7"/>
-        <v>33704.71967726</v>
-      </c>
-      <c r="F72" s="119">
-        <f t="shared" si="7"/>
-        <v>33389.21427787</v>
-      </c>
-      <c r="G72" s="119">
-        <f t="shared" si="7"/>
-        <v>30082.944155000001</v>
-      </c>
-      <c r="H72" s="119">
-        <f t="shared" si="7"/>
-        <v>30082.944155000001</v>
-      </c>
-      <c r="I72" s="119">
-        <f t="shared" si="7"/>
-        <v>30082.944155000001</v>
-      </c>
-      <c r="J72" s="48">
-        <f t="shared" si="4"/>
-        <v>-315.50539939000009</v>
-      </c>
-    </row>
-    <row r="73" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="118" t="s">
-        <v>109</v>
-      </c>
-      <c r="C73" s="119">
-        <f t="shared" si="7"/>
-        <v>2271.5726099999993</v>
-      </c>
-      <c r="D73" s="119">
-        <f t="shared" si="7"/>
-        <v>2277.490597</v>
-      </c>
-      <c r="E73" s="119">
-        <f t="shared" si="7"/>
-        <v>2308.490597</v>
-      </c>
-      <c r="F73" s="119">
-        <f t="shared" si="7"/>
-        <v>2308.3375529999994</v>
-      </c>
-      <c r="G73" s="119">
-        <f t="shared" si="7"/>
-        <v>2271.5726099999993</v>
-      </c>
-      <c r="H73" s="119">
-        <f t="shared" si="7"/>
-        <v>2271.5726099999993</v>
-      </c>
-      <c r="I73" s="119">
-        <f t="shared" si="7"/>
-        <v>2271.5726099999993</v>
-      </c>
-      <c r="J73" s="48">
-        <f t="shared" si="4"/>
-        <v>-0.15304400000059104</v>
-      </c>
-    </row>
-    <row r="74" spans="2:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="118" t="s">
-        <v>111</v>
-      </c>
-      <c r="C74" s="119">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="D74" s="119">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="E74" s="119">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F74" s="119">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="G74" s="119">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H74" s="119">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I74" s="119">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J74" s="48">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="120" t="s">
-        <v>113</v>
-      </c>
-      <c r="C75" s="121">
-        <f t="shared" si="7"/>
-        <v>17993.648703999999</v>
-      </c>
-      <c r="D75" s="121">
-        <f t="shared" si="7"/>
-        <v>18225.377805999997</v>
-      </c>
-      <c r="E75" s="121">
-        <f t="shared" si="7"/>
-        <v>18225.377805999997</v>
-      </c>
-      <c r="F75" s="121">
-        <f t="shared" si="7"/>
-        <v>17989.600804999998</v>
-      </c>
-      <c r="G75" s="121">
-        <f t="shared" si="7"/>
-        <v>17993.648703999999</v>
-      </c>
-      <c r="H75" s="121">
-        <f t="shared" si="7"/>
-        <v>17993.648703999999</v>
-      </c>
-      <c r="I75" s="122">
-        <f t="shared" si="7"/>
-        <v>17993.648703999999</v>
-      </c>
-      <c r="J75" s="48">
-        <f t="shared" si="4"/>
-        <v>-235.77700099999856</v>
-      </c>
-    </row>
-    <row r="76" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="118" t="s">
-        <v>146</v>
-      </c>
-      <c r="C76" s="119">
-        <f t="shared" ref="C76:I79" si="8">C32</f>
-        <v>4000</v>
-      </c>
-      <c r="D76" s="119">
-        <f t="shared" si="8"/>
-        <v>4000</v>
-      </c>
-      <c r="E76" s="119">
-        <f t="shared" si="8"/>
-        <v>4000</v>
-      </c>
-      <c r="F76" s="119">
-        <f t="shared" si="8"/>
-        <v>4000</v>
-      </c>
-      <c r="G76" s="119">
-        <f t="shared" si="8"/>
-        <v>4000</v>
-      </c>
-      <c r="H76" s="119">
-        <f t="shared" si="8"/>
-        <v>4000</v>
-      </c>
-      <c r="I76" s="119">
-        <f t="shared" si="8"/>
-        <v>4000</v>
-      </c>
-      <c r="J76" s="48">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="118" t="s">
-        <v>124</v>
-      </c>
-      <c r="C77" s="119">
-        <f t="shared" si="8"/>
-        <v>2401.8593040000001</v>
-      </c>
-      <c r="D77" s="119">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="E77" s="119">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="F77" s="119">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G77" s="119">
-        <f t="shared" si="8"/>
-        <v>2401.8593040000001</v>
-      </c>
-      <c r="H77" s="119">
-        <f t="shared" si="8"/>
-        <v>2401.8593040000001</v>
-      </c>
-      <c r="I77" s="119">
-        <f t="shared" si="8"/>
-        <v>2401.8593040000001</v>
-      </c>
-      <c r="J77" s="48">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="118" t="s">
-        <v>126</v>
-      </c>
-      <c r="C78" s="119">
-        <f t="shared" si="8"/>
-        <v>26979.334211999998</v>
-      </c>
-      <c r="D78" s="119">
-        <f t="shared" si="8"/>
-        <v>29381.193515999999</v>
-      </c>
-      <c r="E78" s="119">
-        <f t="shared" si="8"/>
-        <v>19454.928241000001</v>
-      </c>
-      <c r="F78" s="119">
-        <f t="shared" si="8"/>
-        <v>19182.582804999998</v>
-      </c>
-      <c r="G78" s="119">
-        <f t="shared" si="8"/>
-        <v>26979.334211999998</v>
-      </c>
-      <c r="H78" s="119">
-        <f t="shared" si="8"/>
-        <v>26979.334211999998</v>
-      </c>
-      <c r="I78" s="119">
-        <f t="shared" si="8"/>
-        <v>26979.334211999998</v>
-      </c>
-      <c r="J78" s="48">
-        <f t="shared" si="4"/>
-        <v>-272.34543600000325</v>
-      </c>
-    </row>
-    <row r="79" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="118" t="s">
-        <v>128</v>
-      </c>
-      <c r="C79" s="119">
-        <f t="shared" si="8"/>
-        <v>13377.631358659557</v>
-      </c>
-      <c r="D79" s="119">
-        <f t="shared" si="8"/>
-        <v>18471.966013661509</v>
-      </c>
-      <c r="E79" s="119">
-        <f t="shared" si="8"/>
-        <v>23035.501975169766</v>
-      </c>
-      <c r="F79" s="119">
-        <f t="shared" si="8"/>
-        <v>22278.757706546177</v>
-      </c>
-      <c r="G79" s="119">
-        <f t="shared" si="8"/>
-        <v>13377.631358659557</v>
-      </c>
-      <c r="H79" s="119">
-        <f t="shared" si="8"/>
-        <v>13377.631358659557</v>
-      </c>
-      <c r="I79" s="119">
-        <f t="shared" si="8"/>
-        <v>13377.631358659557</v>
-      </c>
-      <c r="J79" s="48">
-        <f t="shared" si="4"/>
-        <v>-756.74426862358814</v>
-      </c>
-    </row>
-    <row r="80" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="117" t="s">
-        <v>134</v>
-      </c>
-      <c r="C80" s="48">
-        <f t="shared" ref="C80:I83" si="9">C38</f>
-        <v>169.89536200000001</v>
-      </c>
-      <c r="D80" s="48">
-        <f t="shared" si="9"/>
-        <v>121.67674100000001</v>
-      </c>
-      <c r="E80" s="48">
-        <f t="shared" si="9"/>
-        <v>131.979512</v>
-      </c>
-      <c r="F80" s="48">
-        <f t="shared" si="9"/>
-        <v>137.919265</v>
-      </c>
-      <c r="G80" s="48">
-        <f t="shared" si="9"/>
-        <v>169.89536200000001</v>
-      </c>
-      <c r="H80" s="48">
-        <f t="shared" si="9"/>
-        <v>169.89536200000001</v>
-      </c>
-      <c r="I80" s="48">
-        <f t="shared" si="9"/>
-        <v>169.89536200000001</v>
-      </c>
-      <c r="J80" s="48">
-        <f t="shared" si="4"/>
-        <v>5.9397529999999961</v>
-      </c>
-    </row>
-    <row r="81" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="117" t="s">
-        <v>136</v>
-      </c>
-      <c r="C81" s="48">
-        <f t="shared" si="9"/>
-        <v>1380.273768</v>
-      </c>
-      <c r="D81" s="48">
-        <f t="shared" si="9"/>
-        <v>1487.955483</v>
-      </c>
-      <c r="E81" s="48">
-        <f t="shared" si="9"/>
-        <v>1482.976435</v>
-      </c>
-      <c r="F81" s="48">
-        <f t="shared" si="9"/>
-        <v>1483.409269</v>
-      </c>
-      <c r="G81" s="48">
-        <f t="shared" si="9"/>
-        <v>1380.273768</v>
-      </c>
-      <c r="H81" s="48">
-        <f t="shared" si="9"/>
-        <v>1380.273768</v>
-      </c>
-      <c r="I81" s="48">
-        <f t="shared" si="9"/>
-        <v>1380.273768</v>
-      </c>
-      <c r="J81" s="48">
-        <f t="shared" si="4"/>
-        <v>0.43283399999995709</v>
-      </c>
-    </row>
-    <row r="82" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="117" t="s">
-        <v>137</v>
-      </c>
-      <c r="C82" s="48">
-        <f t="shared" si="9"/>
-        <v>1643.3812350000001</v>
-      </c>
-      <c r="D82" s="48">
-        <f t="shared" si="9"/>
-        <v>968.60924077713685</v>
-      </c>
-      <c r="E82" s="48">
-        <f t="shared" si="9"/>
-        <v>905.04364763196531</v>
-      </c>
-      <c r="F82" s="48">
-        <f t="shared" si="9"/>
-        <v>1102.7373349499801</v>
-      </c>
-      <c r="G82" s="48">
-        <f t="shared" si="9"/>
-        <v>1643.3812350000001</v>
-      </c>
-      <c r="H82" s="48">
-        <f t="shared" si="9"/>
-        <v>1643.3812350000001</v>
-      </c>
-      <c r="I82" s="48">
-        <f t="shared" si="9"/>
-        <v>1643.3812350000001</v>
-      </c>
-      <c r="J82" s="48">
-        <f t="shared" si="4"/>
-        <v>197.69368731801478</v>
-      </c>
-    </row>
-    <row r="83" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B83" s="117" t="s">
-        <v>138</v>
-      </c>
-      <c r="C83" s="48">
-        <f t="shared" si="9"/>
-        <v>4961.5197770000004</v>
-      </c>
-      <c r="D83" s="48">
-        <f t="shared" si="9"/>
-        <v>4961.5197770000004</v>
-      </c>
-      <c r="E83" s="48">
-        <f t="shared" si="9"/>
-        <v>4961.5197770000004</v>
-      </c>
-      <c r="F83" s="48">
-        <f t="shared" si="9"/>
-        <v>4961.5197770000004</v>
-      </c>
-      <c r="G83" s="48">
-        <f t="shared" si="9"/>
-        <v>4961.5197770000004</v>
-      </c>
-      <c r="H83" s="48">
-        <f t="shared" si="9"/>
-        <v>4961.5197770000004</v>
-      </c>
-      <c r="I83" s="48">
-        <f t="shared" si="9"/>
-        <v>4961.5197770000004</v>
-      </c>
-      <c r="J83" s="48">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="123" t="s">
-        <v>147</v>
-      </c>
-      <c r="C84" s="124">
-        <f t="shared" ref="C84:I84" si="10">C85+C86</f>
-        <v>354043.76983599999</v>
-      </c>
-      <c r="D84" s="124">
-        <f t="shared" si="10"/>
-        <v>354401.671432</v>
-      </c>
-      <c r="E84" s="124">
-        <f t="shared" si="10"/>
-        <v>378379.50155299995</v>
-      </c>
-      <c r="F84" s="124">
-        <f t="shared" si="10"/>
-        <v>379823.091243</v>
-      </c>
-      <c r="G84" s="124">
-        <f t="shared" si="10"/>
-        <v>357139.88314900023</v>
-      </c>
-      <c r="H84" s="124">
-        <f t="shared" si="10"/>
-        <v>357139.88314900023</v>
-      </c>
-      <c r="I84" s="124">
-        <f t="shared" si="10"/>
-        <v>357139.88314900023</v>
-      </c>
-      <c r="J84" s="48">
-        <f t="shared" si="4"/>
-        <v>1443.5896900000516</v>
-      </c>
-    </row>
-    <row r="85" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="125" t="s">
-        <v>139</v>
-      </c>
-      <c r="C85" s="126">
-        <f t="shared" ref="C85:I86" si="11">C42</f>
-        <v>223163.86520899998</v>
-      </c>
-      <c r="D85" s="126">
-        <f t="shared" si="11"/>
-        <v>223140.58733099999</v>
-      </c>
-      <c r="E85" s="126">
-        <f t="shared" si="11"/>
-        <v>223206.385152</v>
-      </c>
-      <c r="F85" s="126">
-        <f t="shared" si="11"/>
-        <v>225576.927792</v>
-      </c>
-      <c r="G85" s="126">
-        <f t="shared" si="11"/>
-        <v>223163.76009499998</v>
-      </c>
-      <c r="H85" s="126">
-        <f t="shared" si="11"/>
-        <v>223163.76009499998</v>
-      </c>
-      <c r="I85" s="126">
-        <f t="shared" si="11"/>
-        <v>223163.76009499998</v>
-      </c>
-      <c r="J85" s="48">
-        <f t="shared" si="4"/>
-        <v>2370.5426399999997</v>
-      </c>
-    </row>
-    <row r="86" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="127" t="s">
-        <v>148</v>
-      </c>
-      <c r="C86" s="128">
-        <f t="shared" si="11"/>
-        <v>130879.904627</v>
-      </c>
-      <c r="D86" s="128">
-        <f t="shared" si="11"/>
-        <v>131261.08410099999</v>
-      </c>
-      <c r="E86" s="128">
-        <f t="shared" si="11"/>
-        <v>155173.11640099998</v>
-      </c>
-      <c r="F86" s="128">
-        <f t="shared" si="11"/>
-        <v>154246.16345099997</v>
-      </c>
-      <c r="G86" s="128">
-        <f t="shared" si="11"/>
-        <v>133976.12305400029</v>
-      </c>
-      <c r="H86" s="128">
-        <f t="shared" si="11"/>
-        <v>133976.12305400029</v>
-      </c>
-      <c r="I86" s="129">
-        <f t="shared" si="11"/>
-        <v>133976.12305400029</v>
-      </c>
-      <c r="J86" s="48">
-        <f t="shared" si="4"/>
-        <v>-926.95295000000624</v>
-      </c>
-    </row>
-    <row r="87" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="130" t="s">
-        <v>141</v>
-      </c>
-      <c r="C87" s="102">
-        <f t="shared" ref="C87:D87" si="12">SUM(C59:C84)</f>
-        <v>1720373.9037484715</v>
-      </c>
-      <c r="D87" s="102">
-        <f t="shared" si="12"/>
-        <v>1752991.4859565026</v>
-      </c>
-      <c r="E87" s="102">
-        <f t="shared" ref="E87" si="13">SUM(E59:E84)</f>
-        <v>1787907.5648496039</v>
-      </c>
-      <c r="F87" s="102">
-        <f>SUM(F59:F84)</f>
-        <v>1833726.3802580242</v>
-      </c>
-      <c r="G87" s="102">
-        <f>SUM(G59:G84)</f>
-        <v>1723470.0593104716</v>
-      </c>
-      <c r="H87" s="102">
-        <f>SUM(H59:H84)</f>
-        <v>1723470.0593104716</v>
-      </c>
-      <c r="I87" s="102">
-        <f>SUM(I59:I84)</f>
-        <v>1723470.0593104716</v>
-      </c>
-      <c r="J87" s="102">
-        <f>F87-E87</f>
-        <v>45818.815408420283</v>
-      </c>
-    </row>
-    <row r="88" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="131"/>
-      <c r="C88" s="132"/>
-      <c r="D88" s="132"/>
-      <c r="E88" s="132"/>
-      <c r="F88" s="132"/>
-      <c r="G88" s="132"/>
-      <c r="H88" s="132"/>
-      <c r="I88" s="132"/>
-      <c r="J88" s="132"/>
-    </row>
-    <row r="89" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="106" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="90" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="106" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="91" spans="2:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="140"/>
-      <c r="C91" s="140"/>
-      <c r="D91" s="140"/>
-      <c r="E91" s="140"/>
-      <c r="F91" s="140"/>
-      <c r="G91" s="133"/>
-      <c r="H91" s="133"/>
-      <c r="I91" s="133"/>
-    </row>
-    <row r="92" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="134" t="s">
-        <v>66</v>
-      </c>
-      <c r="C92" s="135">
-        <f>Despesa!C87-[2]Financeira_base!F50</f>
-        <v>0</v>
-      </c>
-      <c r="D92" s="135">
-        <f>Despesa!D87-[2]Financeira_base!H50</f>
-        <v>0</v>
-      </c>
-      <c r="E92" s="135">
-        <f>Despesa!E87-[2]Financeira_base!J50</f>
-        <v>0</v>
-      </c>
-      <c r="F92" s="135">
-        <f>Despesa!F87-[2]Financeira_base!L50</f>
-        <v>0</v>
-      </c>
-      <c r="G92" s="135">
-        <f>Despesa!G87-[2]Financeira_base!N50</f>
-        <v>0</v>
-      </c>
-      <c r="H92" s="135">
-        <f>Despesa!H87-[2]Financeira_base!R50</f>
-        <v>0</v>
-      </c>
-      <c r="I92" s="135">
-        <f>Despesa!I87-[2]Financeira_base!T50</f>
-        <v>0</v>
-      </c>
-      <c r="J92" s="136">
-        <f>D92-C92</f>
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B54:F54"/>
-    <mergeCell ref="B91:F91"/>
-  </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.35433070866141736" header="0.23622047244094491" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" scale="60" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
